--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\cravethedave\masters\minicpbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A53394-C38A-4DB8-85A5-2317F7B652A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E641E42-3BDF-4134-A803-41DA98CE5F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="My pc" sheetId="1" r:id="rId1"/>
+    <sheet name="ComputeCanada" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>MinWt</t>
   </si>
@@ -383,14 +384,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="6" width="11.42578125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="12.140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -591,8 +592,12 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3">
+        <v>170597</v>
+      </c>
+      <c r="J7" s="3">
+        <v>46204</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G8" s="3"/>
@@ -721,4 +726,201 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EE866B-4C8C-4265-8D9B-CBA7AC19948D}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="10" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2996</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2996</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2996</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2975</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3050</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>90</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,24 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\cravethedave\masters\minicpbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6A4E65-FE8E-4026-A401-48621118B85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2AE781-4EE6-49FD-920F-29381EE82B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="360" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="First tests" sheetId="3" r:id="rId1"/>
+    <sheet name="Heuristic 20" sheetId="3" r:id="rId1"/>
+    <sheet name="Heuristic 30" sheetId="4" r:id="rId2"/>
+    <sheet name="Random 20" sheetId="5" r:id="rId3"/>
+    <sheet name="Random 30" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="96">
   <si>
     <t>MinWt</t>
   </si>
@@ -60,9 +74,6 @@
     <t>minEntropy</t>
   </si>
   <si>
-    <t>Rnd</t>
-  </si>
-  <si>
     <t>molecule</t>
   </si>
   <si>
@@ -108,23 +119,230 @@
     <t>SSSSC(S)(SN1SOS1)(F)</t>
   </si>
   <si>
-    <t>Oc1sccc2CCC1SSSSS2__</t>
-  </si>
-  <si>
-    <t>C1OCCC1(SCSSSSC2CS2)</t>
-  </si>
-  <si>
-    <t>IOS(SSS(SS(N1CSS1)))</t>
+    <t>domWdeg Restarts</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Impact Restarts</t>
+  </si>
+  <si>
+    <t>c1occc1CSSC2SSSCS2__</t>
+  </si>
+  <si>
+    <t>IN(N(SSS(SSSS))S1)N1</t>
+  </si>
+  <si>
+    <t>FSOSSCSc1ccsc2C2SC1_</t>
+  </si>
+  <si>
+    <t>C(S)Sc1sccc2SSCC1SO2</t>
+  </si>
+  <si>
+    <t>SCSCOC(SS(Sc1ccsc1))</t>
+  </si>
+  <si>
+    <t>SSSCSC(I)(SSS1)C1(S)</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCNc1nnoc1[N+]2OO2_</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCCC(C1(OO1)(O))</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCN(N1OO1)(O(O))</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCC(N1OO1)(N2OO2)</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCNO(O(N1OO1))__</t>
+  </si>
+  <si>
+    <t>IN(Nc1c(Nc2c(ONS)cnnn1)csc2)NO</t>
+  </si>
+  <si>
+    <t>IN(Nc1c(NCON)nc(N)nn1)NOCCOOOO</t>
+  </si>
+  <si>
+    <t>BrNc1oncc2COc1cc[nH]c2NCOCCCCCN</t>
+  </si>
+  <si>
+    <t>CN(OCF)CCCOc1ccccc2NNC1CCONN2_</t>
+  </si>
+  <si>
+    <t>CN1NC(CNCOCC(OCCCC)Cc2ncno2)C1</t>
+  </si>
+  <si>
+    <t>CCCCC1NSC(F)[NH+](S(SCl))SSS1__</t>
+  </si>
+  <si>
+    <t>OCCCCCCNCO[N+]c1nnoc2C1CCCCC2_</t>
+  </si>
+  <si>
+    <t>IC(C(SC(S[O-])[C@]C1CSCS1))SS_</t>
+  </si>
+  <si>
+    <t>ICCCCCCCCCCCNNNc1onnc2[N+]1ON2</t>
+  </si>
+  <si>
+    <t>ICC(CCC(CCCSC(C))COCCCCCC1NN1)</t>
+  </si>
+  <si>
+    <t>ISC(C(SS[C@@H]Cl)C1OCSC1(CSSF))</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>Run 3</t>
+  </si>
+  <si>
+    <t>Run 4</t>
+  </si>
+  <si>
+    <t>Run 5</t>
+  </si>
+  <si>
+    <t>Run 6</t>
+  </si>
+  <si>
+    <t>Run 7</t>
+  </si>
+  <si>
+    <t>Run 8</t>
+  </si>
+  <si>
+    <t>Run 9</t>
+  </si>
+  <si>
+    <t>Run 10</t>
+  </si>
+  <si>
+    <t>Run 11</t>
+  </si>
+  <si>
+    <t>time (ms)</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ClOc1ccsc1SCSCSC2SS2_</t>
+  </si>
+  <si>
+    <t>ICSSOSCc1ccsc2C2SS1_</t>
+  </si>
+  <si>
+    <t>FSCSc1occc2CC2SSSS1_</t>
+  </si>
+  <si>
+    <t>ICSSSCc1cscc1C2SSO2_</t>
+  </si>
+  <si>
+    <t>COSCSSc1cscc2C1SS2__</t>
+  </si>
+  <si>
+    <t>Oc1cscc2SSC1SSCCS2__</t>
+  </si>
+  <si>
+    <t>Ic1ccsc2OSC2CSSSCS1_</t>
+  </si>
+  <si>
+    <t>IOSCSc1ccsc1CSC2SS2_</t>
+  </si>
+  <si>
+    <t>CSSSc1occc2C2SCSS1__</t>
+  </si>
+  <si>
+    <t>CCOSSc1cscc2C2SSS1__</t>
+  </si>
+  <si>
+    <t>c1ccsc2SCSC2OSSCS1__</t>
+  </si>
+  <si>
+    <t>SSc1oc(SCSCSCS2)c2c1</t>
+  </si>
+  <si>
+    <t>c1sc(CSOS)cc2SCC1SS2</t>
+  </si>
+  <si>
+    <t>COc1c(C2CSSSSS2)scc1</t>
+  </si>
+  <si>
+    <t>C(CSS(S))c1ccoc1SSCS</t>
+  </si>
+  <si>
+    <t>SC(S)SOCSCSC(SCC1)C1</t>
+  </si>
+  <si>
+    <t>SSC(SS)(COc1ccsc1SC)</t>
+  </si>
+  <si>
+    <t>C(S)SSSCSC(c1sccc1O)</t>
+  </si>
+  <si>
+    <t>S(S(OSSCSC1(SCl)SS1))</t>
+  </si>
+  <si>
+    <t>SC(S)(F)SSSS(ON1SS1)</t>
+  </si>
+  <si>
+    <t>SN1SSC1(SSSSF)(O(S))</t>
+  </si>
+  <si>
+    <t>S(C(SCl)(SOSSSS1)N1S)</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Clc1cnnn2NNNc3cncnc1COCOCC2CC3_</t>
+  </si>
+  <si>
+    <t>[NH+]CNCONc1cccnc2NNNC2CCOCCC1</t>
+  </si>
+  <si>
+    <t>C(c1c(ONCl)coc1CNONCCBr)CCCNNCCC</t>
+  </si>
+  <si>
+    <t>c1oc(OSC[N+](SO)(Sc1occn2))nn2</t>
+  </si>
+  <si>
+    <t>SC(N(c1nnno2)O2)C3(C3SC4)N1SS4</t>
+  </si>
+  <si>
+    <t>OSS[N+]1([NH+]SC(S(S))SS1)[O-]</t>
+  </si>
+  <si>
+    <t>ISN(SN1SSS1)(SSS([NH3+]))______</t>
+  </si>
+  <si>
+    <t>ERR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,7 +356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -222,7 +440,7 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
@@ -232,10 +450,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -248,7 +488,157 @@
       <left style="thick">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
@@ -256,10 +646,141 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -267,7 +788,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -280,23 +801,53 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thick">
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -306,7 +857,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="medium">
@@ -319,9 +870,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -329,212 +887,189 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -817,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26AE820-C7D9-41F1-B536-A9AB6B72D3DB}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,434 +1371,2871 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4">
+      <c r="B1" s="47"/>
+      <c r="C1" s="2">
         <v>2996</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="2">
         <v>2996</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="2">
         <v>2996</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="2">
         <v>2950</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="2">
         <v>2996</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="3">
         <v>2996</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8">
+      <c r="B2" s="49"/>
+      <c r="C2" s="4">
         <v>3000</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <v>3000</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <v>3000</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <v>3050</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <v>3000</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="5">
         <v>3000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8">
+      <c r="B3" s="49"/>
+      <c r="C3" s="4">
         <v>35</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <v>35</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <v>35</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8">
+      <c r="B4" s="49"/>
+      <c r="C4" s="4">
         <v>65</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>65</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>65</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>100</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>100</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8">
+      <c r="B5" s="49"/>
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18">
+      <c r="B6" s="51"/>
+      <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="9">
         <v>-1</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="9">
         <v>2</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="9">
         <v>3</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="9">
         <v>3</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>4155593</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>239955</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>15554</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>680697</v>
+      </c>
+      <c r="D8" s="6">
+        <v>39735</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1375</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>13944120</v>
+      </c>
+      <c r="D10" s="6">
+        <v>838565</v>
+      </c>
+      <c r="E10" s="6">
+        <v>46626</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2170434</v>
+      </c>
+      <c r="D11" s="6">
+        <v>126816</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4585</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>893571</v>
+      </c>
+      <c r="D13" s="6">
+        <v>30099</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1953</v>
+      </c>
+      <c r="F13" s="6">
+        <v>48005</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2088863</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>97126</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2225</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5512</v>
+      </c>
+      <c r="G14" s="6">
+        <v>316929</v>
+      </c>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+      <c r="D15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1477811</v>
+      </c>
+      <c r="D16" s="6">
+        <v>27648</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1746</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1065779</v>
+      </c>
+      <c r="G16" s="6">
+        <v>10930316</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10">
-        <v>680697</v>
-      </c>
-      <c r="D8" s="10">
-        <v>39735</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1375</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="C17" s="6">
+        <v>151118</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2663</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>176780</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1602042</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10">
-        <v>893571</v>
-      </c>
-      <c r="D10" s="10">
-        <v>30099</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1953</v>
-      </c>
-      <c r="F10" s="10">
-        <v>48005</v>
-      </c>
-      <c r="G10" s="10">
-        <v>2088863</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+      <c r="C19" s="6">
+        <v>6571323</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2020330</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10">
-        <v>97126</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2225</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>5512</v>
-      </c>
-      <c r="G11" s="10">
-        <v>316929</v>
-      </c>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="C20" s="6">
+        <v>524117</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="6">
+        <v>223223</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10">
-        <v>1477811</v>
-      </c>
-      <c r="D13" s="10">
-        <v>27648</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1746</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1065779</v>
-      </c>
-      <c r="G13" s="10">
-        <v>10930316</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+      <c r="C22" s="6">
+        <v>599723</v>
+      </c>
+      <c r="D22" s="6">
+        <v>51328</v>
+      </c>
+      <c r="E22" s="6">
+        <v>21979</v>
+      </c>
+      <c r="F22" s="6">
+        <v>40524</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="10">
-        <v>151118</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2663</v>
-      </c>
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10">
-        <v>176780</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1602042</v>
-      </c>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="C23" s="6">
+        <v>54968</v>
+      </c>
+      <c r="D23" s="6">
+        <v>3498</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1217</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2969</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="10">
-        <v>13022961</v>
-      </c>
-      <c r="D16" s="10">
-        <v>9121064</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="10">
-        <v>26534340</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="10">
-        <v>3070394</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2340264</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="10">
-        <v>5408160</v>
-      </c>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="30"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="26">
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A22:A24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82E640C-2F62-4701-8259-77B8AC82210F}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="35" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2950</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3050</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="4">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="4">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4">
+        <v>65</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7178208</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="13">
+        <v>576437</v>
+      </c>
+      <c r="G7" s="13">
+        <v>774256</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>437392</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="6">
+        <v>31533</v>
+      </c>
+      <c r="G8" s="6">
+        <v>42157</v>
+      </c>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>25264422</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7272961</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1636281</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1969377</v>
+      </c>
+      <c r="G10" s="15">
+        <v>2335616</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1430561</v>
+      </c>
+      <c r="D11" s="6">
+        <v>399042</v>
+      </c>
+      <c r="E11" s="6">
+        <v>81930</v>
+      </c>
+      <c r="F11" s="6">
+        <v>118557</v>
+      </c>
+      <c r="G11" s="6">
+        <v>127748</v>
+      </c>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>34725</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="6">
+        <v>7572</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1144</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="6">
+        <v>51</v>
+      </c>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6">
+        <v>153250</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5918</v>
+      </c>
+      <c r="G16" s="6">
+        <v>8856</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6">
+        <v>11692</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="6">
+        <v>29</v>
+      </c>
+      <c r="G17" s="6">
+        <v>38</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="6">
+        <v>3219</v>
+      </c>
+      <c r="G19" s="15">
+        <v>7815205</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="6">
+        <v>6</v>
+      </c>
+      <c r="G20" s="6">
+        <v>618031</v>
+      </c>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6">
+        <v>149270</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3984666</v>
+      </c>
+      <c r="E22" s="6">
+        <v>519977</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3156</v>
+      </c>
+      <c r="G22" s="15">
+        <v>10469</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6">
+        <v>5091</v>
+      </c>
+      <c r="D23" s="6">
+        <v>196204</v>
+      </c>
+      <c r="E23" s="6">
+        <v>18540</v>
+      </c>
+      <c r="F23" s="6">
+        <v>6</v>
+      </c>
+      <c r="G23" s="6">
+        <v>114</v>
+      </c>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315A91F6-4EB1-4D9C-8ABD-16875F3D5B54}">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" activeCellId="1" sqref="S16 I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="19" width="21.42578125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54">
+        <v>2996</v>
+      </c>
+      <c r="B2" s="57">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="57">
+        <v>35</v>
+      </c>
+      <c r="D2" s="57">
+        <v>65</v>
+      </c>
+      <c r="E2" s="57">
+        <v>2</v>
+      </c>
+      <c r="F2" s="55">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="7">
+        <f>AVERAGE(I2:S2)</f>
+        <v>5494529.9090909092</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1350079</v>
+      </c>
+      <c r="J2" s="16">
+        <v>35457</v>
+      </c>
+      <c r="K2" s="16">
+        <v>651516</v>
+      </c>
+      <c r="L2" s="16">
+        <v>3594467</v>
+      </c>
+      <c r="M2" s="16">
+        <v>40413</v>
+      </c>
+      <c r="N2" s="16">
+        <v>7979913</v>
+      </c>
+      <c r="O2" s="16">
+        <v>14319665</v>
+      </c>
+      <c r="P2" s="16">
+        <v>6501774</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>17659180</v>
+      </c>
+      <c r="R2" s="16">
+        <v>8301834</v>
+      </c>
+      <c r="S2" s="19">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7">
+        <f>AVERAGE(I3:S3)</f>
+        <v>1023359.7272727273</v>
+      </c>
+      <c r="I3" s="16">
+        <v>356716</v>
+      </c>
+      <c r="J3" s="16">
+        <v>7911</v>
+      </c>
+      <c r="K3" s="16">
+        <v>92133</v>
+      </c>
+      <c r="L3" s="16">
+        <v>868713</v>
+      </c>
+      <c r="M3" s="16">
+        <v>9812</v>
+      </c>
+      <c r="N3" s="16">
+        <v>1296570</v>
+      </c>
+      <c r="O3" s="16">
+        <v>2770203</v>
+      </c>
+      <c r="P3" s="16">
+        <v>1051130</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>3494480</v>
+      </c>
+      <c r="R3" s="16">
+        <v>1309015</v>
+      </c>
+      <c r="S3" s="19">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54">
+        <v>2996</v>
+      </c>
+      <c r="B5" s="57">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="57">
+        <v>35</v>
+      </c>
+      <c r="D5" s="57">
+        <v>65</v>
+      </c>
+      <c r="E5" s="57">
+        <v>2</v>
+      </c>
+      <c r="F5" s="55">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="7">
+        <f>AVERAGE(I5:S5)</f>
+        <v>678498.66666666663</v>
+      </c>
+      <c r="I5" s="16">
+        <v>14789</v>
+      </c>
+      <c r="J5" s="16">
+        <v>1343769</v>
+      </c>
+      <c r="K5" s="16">
+        <v>676938</v>
+      </c>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7">
+        <f>AVERAGE(I6:S6)</f>
+        <v>132138.66666666666</v>
+      </c>
+      <c r="I6" s="16">
+        <v>1844</v>
+      </c>
+      <c r="J6" s="16">
+        <v>334829</v>
+      </c>
+      <c r="K6" s="16">
+        <v>59743</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54">
+        <v>2996</v>
+      </c>
+      <c r="B8" s="57">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="57">
+        <v>35</v>
+      </c>
+      <c r="D8" s="57">
+        <v>65</v>
+      </c>
+      <c r="E8" s="57">
+        <v>1</v>
+      </c>
+      <c r="F8" s="55">
+        <v>2</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="7">
+        <f>AVERAGE(I8:S8)</f>
+        <v>11810440</v>
+      </c>
+      <c r="I8" s="16">
+        <v>13226657</v>
+      </c>
+      <c r="J8" s="16">
+        <v>6285</v>
+      </c>
+      <c r="K8" s="16">
+        <v>27001572</v>
+      </c>
+      <c r="L8" s="16">
+        <v>7007246</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="19"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7">
+        <f>AVERAGE(I9:S9)</f>
+        <v>2516569.25</v>
+      </c>
+      <c r="I9" s="16">
+        <v>2751693</v>
+      </c>
+      <c r="J9" s="16">
+        <v>122</v>
+      </c>
+      <c r="K9" s="16">
+        <v>5931972</v>
+      </c>
+      <c r="L9" s="16">
+        <v>1382490</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54">
+        <v>2950</v>
+      </c>
+      <c r="B11" s="57">
+        <v>3050</v>
+      </c>
+      <c r="C11" s="57">
+        <v>0</v>
+      </c>
+      <c r="D11" s="57">
+        <v>100</v>
+      </c>
+      <c r="E11" s="57">
+        <v>1</v>
+      </c>
+      <c r="F11" s="55">
+        <v>3</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
+        <f>AVERAGE(I11:S11)</f>
+        <v>2371034.5</v>
+      </c>
+      <c r="I11" s="16">
+        <v>268601</v>
+      </c>
+      <c r="J11" s="16">
+        <v>4473468</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="19"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="7">
+        <f>AVERAGE(I12:S12)</f>
+        <v>583362</v>
+      </c>
+      <c r="I12" s="16">
+        <v>39183</v>
+      </c>
+      <c r="J12" s="16">
+        <v>1127541</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="19"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54">
+        <v>2996</v>
+      </c>
+      <c r="B14" s="57">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="57">
+        <v>0</v>
+      </c>
+      <c r="D14" s="57">
+        <v>100</v>
+      </c>
+      <c r="E14" s="57">
+        <v>1</v>
+      </c>
+      <c r="F14" s="55">
+        <v>3</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="7">
+        <f>AVERAGE(I14:S14)</f>
+        <v>123754.5</v>
+      </c>
+      <c r="I14" s="16">
+        <v>11490</v>
+      </c>
+      <c r="J14" s="16">
+        <v>236019</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="19"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7">
+        <f>AVERAGE(I15:S15)</f>
+        <v>18574</v>
+      </c>
+      <c r="I15" s="16">
+        <v>520</v>
+      </c>
+      <c r="J15" s="16">
+        <v>36628</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="19"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54">
+        <v>2996</v>
+      </c>
+      <c r="B17" s="57">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="57">
+        <v>35</v>
+      </c>
+      <c r="D17" s="57">
+        <v>65</v>
+      </c>
+      <c r="E17" s="57">
+        <v>3</v>
+      </c>
+      <c r="F17" s="55">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7" t="e">
+        <f>AVERAGE(I17:S17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="7" t="e">
+        <f>AVERAGE(I18:S18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="19"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC9A8A7-DF50-445D-B75F-C63E25372D8F}">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54">
+        <v>2996</v>
+      </c>
+      <c r="B2" s="57">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="57">
+        <v>35</v>
+      </c>
+      <c r="D2" s="57">
+        <v>65</v>
+      </c>
+      <c r="E2" s="57">
+        <v>2</v>
+      </c>
+      <c r="F2" s="55">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="7">
+        <f>AVERAGE(I2:S2)</f>
+        <v>441628.5</v>
+      </c>
+      <c r="I2" s="16">
+        <v>711095</v>
+      </c>
+      <c r="J2" s="16">
+        <v>172162</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="19"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7">
+        <f>AVERAGE(I3:S3)</f>
+        <v>56696</v>
+      </c>
+      <c r="I3" s="16">
+        <v>102718</v>
+      </c>
+      <c r="J3" s="16">
+        <v>10674</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="19"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54">
+        <v>2996</v>
+      </c>
+      <c r="B5" s="57">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="57">
+        <v>35</v>
+      </c>
+      <c r="D5" s="57">
+        <v>65</v>
+      </c>
+      <c r="E5" s="57">
+        <v>2</v>
+      </c>
+      <c r="F5" s="55">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="7" t="e">
+        <f>AVERAGE(I5:S5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="e">
+        <f>AVERAGE(I6:S6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54">
+        <v>2996</v>
+      </c>
+      <c r="B8" s="57">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="57">
+        <v>35</v>
+      </c>
+      <c r="D8" s="57">
+        <v>65</v>
+      </c>
+      <c r="E8" s="57">
+        <v>1</v>
+      </c>
+      <c r="F8" s="55">
+        <v>2</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="7">
+        <f>AVERAGE(I8:S8)</f>
+        <v>1206801</v>
+      </c>
+      <c r="I8" s="16">
+        <v>1206801</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="19"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7">
+        <f>AVERAGE(I9:S9)</f>
+        <v>153924</v>
+      </c>
+      <c r="I9" s="16">
+        <v>153924</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54">
+        <v>2950</v>
+      </c>
+      <c r="B11" s="57">
+        <v>3050</v>
+      </c>
+      <c r="C11" s="57">
+        <v>0</v>
+      </c>
+      <c r="D11" s="57">
+        <v>100</v>
+      </c>
+      <c r="E11" s="57">
+        <v>1</v>
+      </c>
+      <c r="F11" s="55">
+        <v>3</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
+        <f>AVERAGE(I11:S11)</f>
+        <v>746397.5</v>
+      </c>
+      <c r="I11" s="16">
+        <v>26370</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1466425</v>
+      </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="19"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="7">
+        <f>AVERAGE(I12:S12)</f>
+        <v>158812.5</v>
+      </c>
+      <c r="I12" s="16">
+        <v>4016</v>
+      </c>
+      <c r="J12" s="16">
+        <v>313609</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="19"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="O13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54">
+        <v>2996</v>
+      </c>
+      <c r="B14" s="57">
+        <v>3000</v>
+      </c>
+      <c r="C14" s="57">
+        <v>0</v>
+      </c>
+      <c r="D14" s="57">
+        <v>100</v>
+      </c>
+      <c r="E14" s="57">
+        <v>1</v>
+      </c>
+      <c r="F14" s="55">
+        <v>3</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="7">
+        <f>AVERAGE(I14:S14)</f>
+        <v>13318303.5</v>
+      </c>
+      <c r="I14" s="16">
+        <v>15424043</v>
+      </c>
+      <c r="J14" s="16">
+        <v>11212564</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="19"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7">
+        <f>AVERAGE(I15:S15)</f>
+        <v>743480.5</v>
+      </c>
+      <c r="I15" s="16">
+        <v>667715</v>
+      </c>
+      <c r="J15" s="16">
+        <v>819246</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="19"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54">
+        <v>2996</v>
+      </c>
+      <c r="B17" s="57">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="57">
+        <v>35</v>
+      </c>
+      <c r="D17" s="57">
+        <v>65</v>
+      </c>
+      <c r="E17" s="57">
+        <v>3</v>
+      </c>
+      <c r="F17" s="55">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="7" t="e">
+        <f>AVERAGE(I17:S17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="19"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="7" t="e">
+        <f>AVERAGE(I18:S18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="19"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="59"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\cravethedave\masters\minicpbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2AE781-4EE6-49FD-920F-29381EE82B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B123D-B7C3-4F54-822F-F5456C349369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="105">
   <si>
     <t>MinWt</t>
   </si>
@@ -302,9 +302,6 @@
     <t>S(C(SCl)(SOSSSS1)N1S)</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>Clc1cnnn2NNNc3cncnc1COCOCC2CC3_</t>
   </si>
   <si>
@@ -326,7 +323,37 @@
     <t>ISN(SN1SSS1)(SSS([NH3+]))______</t>
   </si>
   <si>
-    <t>ERR</t>
+    <t>OOM</t>
+  </si>
+  <si>
+    <t>maxMarginal Restart</t>
+  </si>
+  <si>
+    <t>BrCSCSSSc1ccoc1C2SS2_</t>
+  </si>
+  <si>
+    <t>SC(SC(C1SSS1))(SSSBr)</t>
+  </si>
+  <si>
+    <t>ICC(C(C(CCC1SCSCO2)I))CC1OSS2_</t>
+  </si>
+  <si>
+    <t>c1c([O-])scc2N2S[N+](SNS(S))S1</t>
+  </si>
+  <si>
+    <t>C(OI)OSOc1nc2c(SOCN2(N3CO3))s1</t>
+  </si>
+  <si>
+    <t>SSS[C@](CSS)(O)[NH+]c1nc(F)sc1</t>
+  </si>
+  <si>
+    <t>N([O-])SC1([C@]N(SNOI)SOSCC1)S</t>
+  </si>
+  <si>
+    <t>N1[C@](c2n(SSSF)cnc3)(C3SS2)S1</t>
+  </si>
+  <si>
+    <t>c1c(SF)c(OBr)sc1[C@@]C(I)SSSSCF</t>
   </si>
 </sst>
 </file>
@@ -1003,19 +1030,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1024,12 +1048,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,16 +1078,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1061,9 +1091,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1352,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26AE820-C7D9-41F1-B536-A9AB6B72D3DB}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D22" sqref="D22:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,10 +1398,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="2">
         <v>2996</v>
       </c>
@@ -1395,10 +1422,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="4">
         <v>3000</v>
       </c>
@@ -1419,10 +1446,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="4">
         <v>35</v>
       </c>
@@ -1443,10 +1470,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="4">
         <v>65</v>
       </c>
@@ -1467,10 +1494,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -1491,10 +1518,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="9">
         <v>0</v>
       </c>
@@ -1515,7 +1542,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1530,18 +1557,18 @@
       <c r="E7" s="6">
         <v>15554</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="53" t="s">
+      <c r="F7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1554,12 +1581,12 @@
       <c r="E8" s="6">
         <v>1375</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="40"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1574,10 +1601,10 @@
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
-      <c r="H9" s="44"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1592,18 +1619,18 @@
       <c r="E10" s="6">
         <v>46626</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="39" t="s">
+      <c r="F10" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1616,12 +1643,12 @@
       <c r="E11" s="6">
         <v>4585</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="40"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1636,10 +1663,10 @@
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
-      <c r="H12" s="44"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1660,12 +1687,12 @@
       <c r="G13" s="6">
         <v>2088863</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1684,10 +1711,10 @@
       <c r="G14" s="6">
         <v>316929</v>
       </c>
-      <c r="H14" s="40"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1706,260 +1733,332 @@
       <c r="G15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>10</v>
+      <c r="A16" s="41" t="s">
+        <v>95</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="6">
-        <v>1477811</v>
+        <v>2775376</v>
       </c>
       <c r="D16" s="6">
-        <v>27648</v>
+        <v>76247</v>
       </c>
       <c r="E16" s="6">
-        <v>1746</v>
+        <v>1969</v>
       </c>
       <c r="F16" s="6">
-        <v>1065779</v>
+        <v>139031</v>
       </c>
       <c r="G16" s="6">
-        <v>10930316</v>
-      </c>
-      <c r="H16" s="39" t="s">
+        <v>6621263</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>151118</v>
+        <v>293163</v>
       </c>
       <c r="D17" s="6">
-        <v>2663</v>
+        <v>7137</v>
       </c>
       <c r="E17" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>176780</v>
+        <v>16807</v>
       </c>
       <c r="G17" s="6">
-        <v>1602042</v>
-      </c>
-      <c r="H17" s="40"/>
+        <v>978978</v>
+      </c>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="44"/>
+        <v>20</v>
+      </c>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>27</v>
+      <c r="A19" s="41" t="s">
+        <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="6">
-        <v>6571323</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>95</v>
+        <v>1477811</v>
+      </c>
+      <c r="D19" s="6">
+        <v>27648</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1746</v>
       </c>
       <c r="F19" s="6">
-        <v>2020330</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>95</v>
+        <v>1065779</v>
+      </c>
+      <c r="G19" s="6">
+        <v>10930316</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>524117</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+        <v>151118</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2663</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
       <c r="F20" s="6">
-        <v>223223</v>
-      </c>
-      <c r="G20" s="38"/>
-      <c r="H20" s="40"/>
+        <v>176780</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1602042</v>
+      </c>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+        <v>21</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="F21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="44"/>
+        <v>24</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>28</v>
+      <c r="A22" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="6">
-        <v>599723</v>
-      </c>
-      <c r="D22" s="6">
-        <v>51328</v>
-      </c>
-      <c r="E22" s="6">
-        <v>21979</v>
+        <v>6571323</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>94</v>
       </c>
       <c r="F22" s="6">
-        <v>40524</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>15</v>
+        <v>2020330</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6">
+        <v>524117</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="6">
+        <v>223223</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>599723</v>
+      </c>
+      <c r="D25" s="6">
+        <v>51328</v>
+      </c>
+      <c r="E25" s="6">
+        <v>21979</v>
+      </c>
+      <c r="F25" s="6">
+        <v>40524</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6">
         <v>54968</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D26" s="6">
         <v>3498</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E26" s="6">
         <v>1217</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F26" s="6">
         <v>2969</v>
       </c>
-      <c r="G23" s="38"/>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="7" t="s">
+      <c r="G26" s="44"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H21"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="H16:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1967,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82E640C-2F62-4701-8259-77B8AC82210F}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,10 +2080,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="2">
         <v>2996</v>
       </c>
@@ -2005,10 +2104,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="4">
         <v>3000</v>
       </c>
@@ -2029,10 +2128,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="4">
         <v>35</v>
       </c>
@@ -2053,10 +2152,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="4">
         <v>65</v>
       </c>
@@ -2077,10 +2176,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -2101,10 +2200,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="9">
         <v>0</v>
       </c>
@@ -2125,7 +2224,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2134,11 +2233,11 @@
       <c r="C7" s="6">
         <v>7178208</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>95</v>
+      <c r="D7" s="13">
+        <v>1845745</v>
+      </c>
+      <c r="E7" s="13">
+        <v>453365</v>
       </c>
       <c r="F7" s="13">
         <v>576437</v>
@@ -2146,48 +2245,56 @@
       <c r="G7" s="13">
         <v>774256</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="37" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="6">
         <v>437392</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="D8" s="6">
+        <v>106666</v>
+      </c>
+      <c r="E8" s="6">
+        <v>24011</v>
+      </c>
       <c r="F8" s="6">
         <v>31533</v>
       </c>
       <c r="G8" s="6">
         <v>42157</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="F9" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2208,12 +2315,12 @@
       <c r="G10" s="15">
         <v>2335616</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -2232,10 +2339,10 @@
       <c r="G11" s="6">
         <v>127748</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -2254,10 +2361,10 @@
       <c r="G12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2266,40 +2373,42 @@
       <c r="C13" s="6">
         <v>34725</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>95</v>
+      <c r="D13" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3769</v>
       </c>
       <c r="G13" s="6">
         <v>7572</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6">
         <v>1144</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
       <c r="G14" s="6">
         <v>51</v>
       </c>
-      <c r="H14" s="40"/>
+      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
@@ -2308,262 +2417,327 @@
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="F15" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="G15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>10</v>
+      <c r="A16" s="41" t="s">
+        <v>95</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="6">
-        <v>153250</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5918</v>
+        <v>111573</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3854</v>
       </c>
       <c r="G16" s="6">
-        <v>8856</v>
-      </c>
-      <c r="H16" s="39" t="s">
+        <v>8097</v>
+      </c>
+      <c r="H16" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>11692</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+        <v>4354</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="6">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G17" s="6">
-        <v>38</v>
-      </c>
-      <c r="H17" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
-      <c r="F18" s="12" t="s">
-        <v>49</v>
+      <c r="F18" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="44"/>
+        <v>47</v>
+      </c>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>27</v>
+      <c r="A19" s="41" t="s">
+        <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>95</v>
+      <c r="C19" s="6">
+        <v>153250</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>15</v>
       </c>
       <c r="F19" s="6">
-        <v>3219</v>
-      </c>
-      <c r="G19" s="15">
-        <v>7815205</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>95</v>
+        <v>5918</v>
+      </c>
+      <c r="G19" s="6">
+        <v>8856</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="C20" s="6">
+        <v>11692</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="6">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G20" s="6">
-        <v>618031</v>
-      </c>
-      <c r="H20" s="40"/>
+        <v>38</v>
+      </c>
+      <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="44"/>
+        <v>49</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>28</v>
+      <c r="A22" s="41" t="s">
+        <v>27</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="6">
-        <v>149270</v>
-      </c>
-      <c r="D22" s="6">
-        <v>3984666</v>
-      </c>
-      <c r="E22" s="6">
-        <v>519977</v>
+      <c r="C22" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>94</v>
       </c>
       <c r="F22" s="6">
-        <v>3156</v>
+        <v>3219</v>
       </c>
       <c r="G22" s="15">
-        <v>10469</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>95</v>
+        <v>7815205</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="6">
-        <v>5091</v>
-      </c>
-      <c r="D23" s="6">
-        <v>196204</v>
-      </c>
-      <c r="E23" s="6">
-        <v>18540</v>
-      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="6">
         <v>6</v>
       </c>
       <c r="G23" s="6">
+        <v>618031</v>
+      </c>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>149270</v>
+      </c>
+      <c r="D25" s="6">
+        <v>3984666</v>
+      </c>
+      <c r="E25" s="6">
+        <v>519977</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3156</v>
+      </c>
+      <c r="G25" s="15">
+        <v>10469</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5091</v>
+      </c>
+      <c r="D26" s="6">
+        <v>196204</v>
+      </c>
+      <c r="E26" s="6">
+        <v>18540</v>
+      </c>
+      <c r="F26" s="6">
+        <v>6</v>
+      </c>
+      <c r="G26" s="6">
         <v>114</v>
       </c>
-      <c r="H23" s="40"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="7" t="s">
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="41"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2574,7 +2748,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" activeCellId="1" sqref="S16 I29"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,22 +2817,22 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54">
+      <c r="A2" s="55">
         <v>2996</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="54">
         <v>3000</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="54">
         <v>35</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="54">
         <v>65</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="54">
         <v>2</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="56">
         <v>0</v>
       </c>
       <c r="G2" s="26" t="s">
@@ -2703,12 +2877,12 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="55"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="26" t="s">
         <v>9</v>
       </c>
@@ -2751,12 +2925,12 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="55"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="31" t="s">
         <v>11</v>
       </c>
@@ -2798,22 +2972,22 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54">
+      <c r="A5" s="55">
         <v>2996</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="54">
         <v>3000</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="54">
         <v>35</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="54">
         <v>65</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="54">
         <v>2</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="56">
         <v>-1</v>
       </c>
       <c r="G5" s="26" t="s">
@@ -2835,12 +3009,12 @@
       <c r="S5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="55"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="26" t="s">
         <v>9</v>
       </c>
@@ -2867,12 +3041,12 @@
       <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="55"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="31" t="s">
         <v>11</v>
       </c>
@@ -2914,22 +3088,22 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54">
+      <c r="A8" s="55">
         <v>2996</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="54">
         <v>3000</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="54">
         <v>35</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="54">
         <v>65</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="54">
         <v>1</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="56">
         <v>2</v>
       </c>
       <c r="G8" s="26" t="s">
@@ -2960,12 +3134,12 @@
       <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="55"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="26" t="s">
         <v>9</v>
       </c>
@@ -2994,12 +3168,12 @@
       <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="55"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="31" t="s">
         <v>11</v>
       </c>
@@ -3041,22 +3215,22 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54">
+      <c r="A11" s="55">
         <v>2950</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="54">
         <v>3050</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="54">
         <v>0</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="54">
         <v>100</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <v>1</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="56">
         <v>3</v>
       </c>
       <c r="G11" s="26" t="s">
@@ -3083,12 +3257,12 @@
       <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="55"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="26" t="s">
         <v>9</v>
       </c>
@@ -3113,12 +3287,12 @@
       <c r="S12" s="19"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="55"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="31" t="s">
         <v>11</v>
       </c>
@@ -3160,22 +3334,22 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+      <c r="A14" s="55">
         <v>2996</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="54">
         <v>3000</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="54">
         <v>0</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="54">
         <v>100</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="54">
         <v>1</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="56">
         <v>3</v>
       </c>
       <c r="G14" s="26" t="s">
@@ -3202,12 +3376,12 @@
       <c r="S14" s="19"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="55"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="26" t="s">
         <v>9</v>
       </c>
@@ -3232,12 +3406,12 @@
       <c r="S15" s="19"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="55"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="31" t="s">
         <v>11</v>
       </c>
@@ -3275,26 +3449,26 @@
         <v>15</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54">
+      <c r="A17" s="55">
         <v>2996</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="54">
         <v>3000</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="54">
         <v>35</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="54">
         <v>65</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <v>3</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="56">
         <v>-1</v>
       </c>
       <c r="G17" s="26" t="s">
@@ -3317,12 +3491,12 @@
       <c r="S17" s="19"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="55"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="26" t="s">
         <v>9</v>
       </c>
@@ -3348,7 +3522,7 @@
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
-      <c r="F19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="27" t="s">
         <v>11</v>
       </c>
@@ -3392,11 +3566,27 @@
     <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="D11:D13"/>
@@ -3405,29 +3595,13 @@
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3439,17 +3613,15 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="10.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="35.7109375" style="1" customWidth="1"/>
+    <col min="15" max="19" width="8.5703125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -3511,22 +3683,22 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54">
+      <c r="A2" s="55">
         <v>2996</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="54">
         <v>3000</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="54">
         <v>35</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="54">
         <v>65</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="54">
         <v>2</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="56">
         <v>0</v>
       </c>
       <c r="G2" s="26" t="s">
@@ -3553,12 +3725,12 @@
       <c r="S2" s="19"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="55"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="26" t="s">
         <v>9</v>
       </c>
@@ -3583,12 +3755,12 @@
       <c r="S3" s="19"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="55"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="31" t="s">
         <v>11</v>
       </c>
@@ -3596,11 +3768,11 @@
         <v>64</v>
       </c>
       <c r="I4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="35" t="s">
-        <v>89</v>
-      </c>
       <c r="K4" s="35" t="s">
         <v>15</v>
       </c>
@@ -3630,22 +3802,22 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54">
+      <c r="A5" s="55">
         <v>2996</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="54">
         <v>3000</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="54">
         <v>35</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="54">
         <v>65</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="54">
         <v>2</v>
       </c>
-      <c r="F5" s="55">
+      <c r="F5" s="56">
         <v>-1</v>
       </c>
       <c r="G5" s="26" t="s">
@@ -3661,12 +3833,12 @@
       <c r="S5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="55"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="26" t="s">
         <v>9</v>
       </c>
@@ -3687,12 +3859,12 @@
       <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="55"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="31" t="s">
         <v>11</v>
       </c>
@@ -3734,22 +3906,22 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54">
+      <c r="A8" s="55">
         <v>2996</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="54">
         <v>3000</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="54">
         <v>35</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="54">
         <v>65</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="54">
         <v>1</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="56">
         <v>2</v>
       </c>
       <c r="G8" s="26" t="s">
@@ -3774,12 +3946,12 @@
       <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="55"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="26" t="s">
         <v>9</v>
       </c>
@@ -3802,12 +3974,12 @@
       <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="55"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="31" t="s">
         <v>11</v>
       </c>
@@ -3815,7 +3987,7 @@
         <v>64</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" s="35" t="s">
         <v>15</v>
@@ -3849,22 +4021,22 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54">
+      <c r="A11" s="55">
         <v>2950</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="54">
         <v>3050</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="54">
         <v>0</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="54">
         <v>100</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <v>1</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="56">
         <v>3</v>
       </c>
       <c r="G11" s="26" t="s">
@@ -3872,7 +4044,7 @@
       </c>
       <c r="H11" s="7">
         <f>AVERAGE(I11:S11)</f>
-        <v>746397.5</v>
+        <v>251748</v>
       </c>
       <c r="I11" s="16">
         <v>26370</v>
@@ -3880,10 +4052,18 @@
       <c r="J11" s="16">
         <v>1466425</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="K11" s="16">
+        <v>12204</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1747</v>
+      </c>
+      <c r="M11" s="16">
+        <v>2287</v>
+      </c>
+      <c r="N11" s="16">
+        <v>1455</v>
+      </c>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -3891,18 +4071,18 @@
       <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="55"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="26" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="7">
         <f>AVERAGE(I12:S12)</f>
-        <v>158812.5</v>
+        <v>53252</v>
       </c>
       <c r="I12" s="16">
         <v>4016</v>
@@ -3910,10 +4090,18 @@
       <c r="J12" s="16">
         <v>313609</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="K12" s="16">
+        <v>1871</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16">
+        <v>14</v>
+      </c>
+      <c r="N12" s="16">
+        <v>2</v>
+      </c>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
@@ -3921,12 +4109,12 @@
       <c r="S12" s="19"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="55"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="31" t="s">
         <v>11</v>
       </c>
@@ -3934,56 +4122,56 @@
         <v>64</v>
       </c>
       <c r="I13" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="35" t="s">
-        <v>92</v>
-      </c>
       <c r="K13" s="35" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+      <c r="A14" s="55">
         <v>2996</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="54">
         <v>3000</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="54">
         <v>0</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="54">
         <v>100</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="54">
         <v>1</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="56">
         <v>3</v>
       </c>
       <c r="G14" s="26" t="s">
@@ -3991,7 +4179,7 @@
       </c>
       <c r="H14" s="7">
         <f>AVERAGE(I14:S14)</f>
-        <v>13318303.5</v>
+        <v>7146960.5</v>
       </c>
       <c r="I14" s="16">
         <v>15424043</v>
@@ -3999,8 +4187,12 @@
       <c r="J14" s="16">
         <v>11212564</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="K14" s="16">
+        <v>134893</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1816342</v>
+      </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
@@ -4010,18 +4202,18 @@
       <c r="S14" s="19"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="55"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="26" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="7">
         <f>AVERAGE(I15:S15)</f>
-        <v>743480.5</v>
+        <v>392137</v>
       </c>
       <c r="I15" s="16">
         <v>667715</v>
@@ -4029,8 +4221,12 @@
       <c r="J15" s="16">
         <v>819246</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="K15" s="16">
+        <v>10123</v>
+      </c>
+      <c r="L15" s="16">
+        <v>71464</v>
+      </c>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -4040,12 +4236,12 @@
       <c r="S15" s="19"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="55"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="31" t="s">
         <v>11</v>
       </c>
@@ -4053,16 +4249,16 @@
         <v>64</v>
       </c>
       <c r="I16" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="J16" s="35" t="s">
-        <v>94</v>
-      </c>
       <c r="K16" s="35" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="L16" s="35" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="M16" s="35" t="s">
         <v>15</v>
@@ -4074,35 +4270,35 @@
         <v>15</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="S16" s="36" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54">
+      <c r="A17" s="55">
         <v>2996</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="54">
         <v>3000</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="54">
         <v>35</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="54">
         <v>65</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <v>3</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="56">
         <v>-1</v>
       </c>
       <c r="G17" s="26" t="s">
@@ -4125,12 +4321,12 @@
       <c r="S17" s="19"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="55"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="26" t="s">
         <v>9</v>
       </c>
@@ -4156,7 +4352,7 @@
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
-      <c r="F19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="27" t="s">
         <v>11</v>
       </c>
@@ -4194,12 +4390,36 @@
         <v>15</v>
       </c>
       <c r="S19" s="22" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -4212,30 +4432,6 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\cravethedave\masters\minicpbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B123D-B7C3-4F54-822F-F5456C349369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77F6788-1EA3-4046-8408-FC055F40AE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heuristic 20" sheetId="3" r:id="rId1"/>
-    <sheet name="Heuristic 30" sheetId="4" r:id="rId2"/>
-    <sheet name="Random 20" sheetId="5" r:id="rId3"/>
+    <sheet name="Random 20" sheetId="5" r:id="rId2"/>
+    <sheet name="Heuristic 30" sheetId="4" r:id="rId3"/>
     <sheet name="Random 30" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="108">
   <si>
     <t>MinWt</t>
   </si>
@@ -354,6 +354,15 @@
   </si>
   <si>
     <t>c1c(SF)c(OBr)sc1[C@@]C(I)SSSSCF</t>
+  </si>
+  <si>
+    <t>maxMarginal Strength</t>
+  </si>
+  <si>
+    <t>minEntropy Biased</t>
+  </si>
+  <si>
+    <t>domRandom</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -916,11 +925,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,16 +1069,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1048,15 +1090,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,37 +1117,46 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1379,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26AE820-C7D9-41F1-B536-A9AB6B72D3DB}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,10 +1458,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="2">
         <v>2996</v>
       </c>
@@ -1422,10 +1482,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="4">
         <v>3000</v>
       </c>
@@ -1446,10 +1506,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="4">
         <v>35</v>
       </c>
@@ -1470,10 +1530,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="4">
         <v>65</v>
       </c>
@@ -1494,10 +1554,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -1518,10 +1578,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="9">
         <v>0</v>
       </c>
@@ -1542,7 +1602,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1557,18 +1617,18 @@
       <c r="E7" s="6">
         <v>15554</v>
       </c>
-      <c r="F7" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="37" t="s">
+      <c r="F7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="53" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1581,12 +1641,12 @@
       <c r="E8" s="6">
         <v>1375</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1601,10 +1661,10 @@
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
-      <c r="H9" s="39"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1619,18 +1679,18 @@
       <c r="E10" s="6">
         <v>46626</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="40" t="s">
+      <c r="F10" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1643,12 +1703,12 @@
       <c r="E11" s="6">
         <v>4585</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="38"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1661,135 +1721,103 @@
       <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="39"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>7</v>
+      <c r="A13" s="42" t="s">
+        <v>107</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6">
-        <v>893571</v>
-      </c>
-      <c r="D13" s="6">
-        <v>30099</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1953</v>
-      </c>
-      <c r="F13" s="6">
-        <v>48005</v>
-      </c>
-      <c r="G13" s="6">
-        <v>2088863</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>15</v>
-      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6">
-        <v>97126</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2225</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>5512</v>
-      </c>
-      <c r="G14" s="6">
-        <v>316929</v>
-      </c>
-      <c r="H14" s="38"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="39"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>95</v>
+      <c r="A16" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="6">
-        <v>2775376</v>
+        <v>893571</v>
       </c>
       <c r="D16" s="6">
-        <v>76247</v>
+        <v>30099</v>
       </c>
       <c r="E16" s="6">
-        <v>1969</v>
+        <v>1953</v>
       </c>
       <c r="F16" s="6">
-        <v>139031</v>
+        <v>48005</v>
       </c>
       <c r="G16" s="6">
-        <v>6621263</v>
-      </c>
-      <c r="H16" s="40" t="s">
+        <v>2088863</v>
+      </c>
+      <c r="H16" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>293163</v>
+        <v>97126</v>
       </c>
       <c r="D17" s="6">
-        <v>7137</v>
+        <v>2225</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
       </c>
       <c r="F17" s="6">
-        <v>16807</v>
+        <v>5512</v>
       </c>
       <c r="G17" s="6">
-        <v>978978</v>
-      </c>
-      <c r="H17" s="38"/>
+        <v>316929</v>
+      </c>
+      <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>17</v>
@@ -1798,957 +1826,480 @@
         <v>18</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>10</v>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="6">
-        <v>1477811</v>
+        <v>2784809</v>
       </c>
       <c r="D19" s="6">
-        <v>27648</v>
+        <v>78952</v>
       </c>
       <c r="E19" s="6">
-        <v>1746</v>
+        <v>2046</v>
       </c>
       <c r="F19" s="6">
-        <v>1065779</v>
+        <v>141226</v>
       </c>
       <c r="G19" s="6">
-        <v>10930316</v>
-      </c>
-      <c r="H19" s="40" t="s">
+        <v>6575921</v>
+      </c>
+      <c r="H19" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>151118</v>
+        <v>293163</v>
       </c>
       <c r="D20" s="6">
-        <v>2663</v>
+        <v>7137</v>
       </c>
       <c r="E20" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="6">
-        <v>176780</v>
+        <v>16807</v>
       </c>
       <c r="G20" s="6">
-        <v>1602042</v>
-      </c>
-      <c r="H20" s="38"/>
+        <v>978978</v>
+      </c>
+      <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="39"/>
+        <v>20</v>
+      </c>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>27</v>
+      <c r="A22" s="42" t="s">
+        <v>105</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="6">
-        <v>6571323</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="6">
-        <v>2020330</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>94</v>
-      </c>
+        <v>4173638</v>
+      </c>
+      <c r="D22" s="6">
+        <v>249450</v>
+      </c>
+      <c r="E22" s="6">
+        <v>17078</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6">
-        <v>524117</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="6">
-        <v>223223</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="38"/>
+        <v>680697</v>
+      </c>
+      <c r="D23" s="6">
+        <v>39735</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1375</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="12" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="45"/>
       <c r="G24" s="45"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>28</v>
+      <c r="A25" s="42" t="s">
+        <v>10</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="6">
-        <v>599723</v>
+        <v>1477811</v>
       </c>
       <c r="D25" s="6">
-        <v>51328</v>
+        <v>27648</v>
       </c>
       <c r="E25" s="6">
-        <v>21979</v>
+        <v>1746</v>
       </c>
       <c r="F25" s="6">
-        <v>40524</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="40" t="s">
+        <v>1065779</v>
+      </c>
+      <c r="G25" s="6">
+        <v>10930316</v>
+      </c>
+      <c r="H25" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="6">
+        <v>151118</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2663</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>176780</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1602042</v>
+      </c>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4271434</v>
+      </c>
+      <c r="D28" s="6">
+        <v>250258</v>
+      </c>
+      <c r="E28" s="6">
+        <v>16348</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6">
+        <v>680697</v>
+      </c>
+      <c r="D29" s="6">
+        <v>39735</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1375</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6">
+        <v>6571323</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2020330</v>
+      </c>
+      <c r="G31" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="6">
+        <v>524117</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="6">
+        <v>223223</v>
+      </c>
+      <c r="G32" s="38"/>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="45"/>
+      <c r="H33" s="44"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <v>599723</v>
+      </c>
+      <c r="D34" s="6">
+        <v>51328</v>
+      </c>
+      <c r="E34" s="6">
+        <v>21979</v>
+      </c>
+      <c r="F34" s="6">
+        <v>40524</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6">
         <v>54968</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D35" s="6">
         <v>3498</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E35" s="6">
         <v>1217</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F35" s="6">
         <v>2969</v>
       </c>
-      <c r="G26" s="44"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="7" t="s">
+      <c r="G35" s="38"/>
+      <c r="H35" s="40"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="44"/>
-      <c r="H27" s="53"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="41"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="61"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="62"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="G25:G27"/>
+  <mergeCells count="40">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H19:H21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="H22:H24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
     <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A25:A27"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="A34:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82E640C-2F62-4701-8259-77B8AC82210F}">
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="35" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="2">
-        <v>2996</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2996</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2996</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2950</v>
-      </c>
-      <c r="G1" s="2">
-        <v>2996</v>
-      </c>
-      <c r="H1" s="3">
-        <v>2996</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="4">
-        <v>3000</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3000</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3000</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3050</v>
-      </c>
-      <c r="G2" s="4">
-        <v>3000</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="4">
-        <v>35</v>
-      </c>
-      <c r="D3" s="4">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4">
-        <v>35</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="4">
-        <v>65</v>
-      </c>
-      <c r="D4" s="4">
-        <v>65</v>
-      </c>
-      <c r="E4" s="4">
-        <v>65</v>
-      </c>
-      <c r="F4" s="4">
-        <v>100</v>
-      </c>
-      <c r="G4" s="4">
-        <v>100</v>
-      </c>
-      <c r="H4" s="5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9">
-        <v>3</v>
-      </c>
-      <c r="G6" s="9">
-        <v>3</v>
-      </c>
-      <c r="H6" s="10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6">
-        <v>7178208</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1845745</v>
-      </c>
-      <c r="E7" s="13">
-        <v>453365</v>
-      </c>
-      <c r="F7" s="13">
-        <v>576437</v>
-      </c>
-      <c r="G7" s="13">
-        <v>774256</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>437392</v>
-      </c>
-      <c r="D8" s="6">
-        <v>106666</v>
-      </c>
-      <c r="E8" s="6">
-        <v>24011</v>
-      </c>
-      <c r="F8" s="6">
-        <v>31533</v>
-      </c>
-      <c r="G8" s="6">
-        <v>42157</v>
-      </c>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="39"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6">
-        <v>25264422</v>
-      </c>
-      <c r="D10" s="6">
-        <v>7272961</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1636281</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1969377</v>
-      </c>
-      <c r="G10" s="15">
-        <v>2335616</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1430561</v>
-      </c>
-      <c r="D11" s="6">
-        <v>399042</v>
-      </c>
-      <c r="E11" s="6">
-        <v>81930</v>
-      </c>
-      <c r="F11" s="6">
-        <v>118557</v>
-      </c>
-      <c r="G11" s="6">
-        <v>127748</v>
-      </c>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6">
-        <v>34725</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="15">
-        <v>3769</v>
-      </c>
-      <c r="G13" s="6">
-        <v>7572</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1144</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>51</v>
-      </c>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="39"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="6">
-        <v>111573</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="15">
-        <v>3854</v>
-      </c>
-      <c r="G16" s="6">
-        <v>8097</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="6">
-        <v>4354</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>51</v>
-      </c>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="39"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6">
-        <v>153250</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="6">
-        <v>5918</v>
-      </c>
-      <c r="G19" s="6">
-        <v>8856</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="6">
-        <v>11692</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="6">
-        <v>29</v>
-      </c>
-      <c r="G20" s="6">
-        <v>38</v>
-      </c>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="6">
-        <v>3219</v>
-      </c>
-      <c r="G22" s="15">
-        <v>7815205</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="6">
-        <v>6</v>
-      </c>
-      <c r="G23" s="6">
-        <v>618031</v>
-      </c>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="39"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6">
-        <v>149270</v>
-      </c>
-      <c r="D25" s="6">
-        <v>3984666</v>
-      </c>
-      <c r="E25" s="6">
-        <v>519977</v>
-      </c>
-      <c r="F25" s="6">
-        <v>3156</v>
-      </c>
-      <c r="G25" s="15">
-        <v>10469</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="6">
-        <v>5091</v>
-      </c>
-      <c r="D26" s="6">
-        <v>196204</v>
-      </c>
-      <c r="E26" s="6">
-        <v>18540</v>
-      </c>
-      <c r="F26" s="6">
-        <v>6</v>
-      </c>
-      <c r="G26" s="6">
-        <v>114</v>
-      </c>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="53"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315A91F6-4EB1-4D9C-8ABD-16875F3D5B54}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,19 +2368,19 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55">
+      <c r="A2" s="54">
         <v>2996</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="57">
         <v>3000</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="57">
         <v>35</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="57">
         <v>65</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="57">
         <v>2</v>
       </c>
       <c r="F2" s="56">
@@ -2838,7 +2389,7 @@
       <c r="G2" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="60">
         <f>AVERAGE(I2:S2)</f>
         <v>5494529.9090909092</v>
       </c>
@@ -2877,16 +2428,16 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="56"/>
       <c r="G3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="60">
         <f>AVERAGE(I3:S3)</f>
         <v>1023359.7272727273</v>
       </c>
@@ -2925,11 +2476,11 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="56"/>
       <c r="G4" s="31" t="s">
         <v>11</v>
@@ -2972,19 +2523,19 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55">
+      <c r="A5" s="54">
         <v>2996</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="57">
         <v>3000</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="57">
         <v>35</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="57">
         <v>65</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="57">
         <v>2</v>
       </c>
       <c r="F5" s="56">
@@ -2993,7 +2544,7 @@
       <c r="G5" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="60">
         <f>AVERAGE(I5:S5)</f>
         <v>678498.66666666663</v>
       </c>
@@ -3009,16 +2560,16 @@
       <c r="S5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="56"/>
       <c r="G6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="60">
         <f>AVERAGE(I6:S6)</f>
         <v>132138.66666666666</v>
       </c>
@@ -3041,11 +2592,11 @@
       <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="56"/>
       <c r="G7" s="31" t="s">
         <v>11</v>
@@ -3088,19 +2639,19 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55">
+      <c r="A8" s="54">
         <v>2996</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="57">
         <v>3000</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="57">
         <v>35</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="57">
         <v>65</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="57">
         <v>1</v>
       </c>
       <c r="F8" s="56">
@@ -3109,7 +2660,7 @@
       <c r="G8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="60">
         <f>AVERAGE(I8:S8)</f>
         <v>11810440</v>
       </c>
@@ -3134,16 +2685,16 @@
       <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="56"/>
       <c r="G9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="60">
         <f>AVERAGE(I9:S9)</f>
         <v>2516569.25</v>
       </c>
@@ -3168,11 +2719,11 @@
       <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="56"/>
       <c r="G10" s="31" t="s">
         <v>11</v>
@@ -3215,19 +2766,19 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
+      <c r="A11" s="54">
         <v>2950</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="57">
         <v>3050</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="57">
         <v>0</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="57">
         <v>100</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="57">
         <v>1</v>
       </c>
       <c r="F11" s="56">
@@ -3236,7 +2787,7 @@
       <c r="G11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="60">
         <f>AVERAGE(I11:S11)</f>
         <v>2371034.5</v>
       </c>
@@ -3257,16 +2808,16 @@
       <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="56"/>
       <c r="G12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="60">
         <f>AVERAGE(I12:S12)</f>
         <v>583362</v>
       </c>
@@ -3287,11 +2838,11 @@
       <c r="S12" s="19"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="56"/>
       <c r="G13" s="31" t="s">
         <v>11</v>
@@ -3334,19 +2885,19 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>2996</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="57">
         <v>3000</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="57">
         <v>0</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="57">
         <v>100</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="57">
         <v>1</v>
       </c>
       <c r="F14" s="56">
@@ -3355,7 +2906,7 @@
       <c r="G14" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="60">
         <f>AVERAGE(I14:S14)</f>
         <v>123754.5</v>
       </c>
@@ -3376,16 +2927,16 @@
       <c r="S14" s="19"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="56"/>
       <c r="G15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="60">
         <f>AVERAGE(I15:S15)</f>
         <v>18574</v>
       </c>
@@ -3406,11 +2957,11 @@
       <c r="S15" s="19"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="56"/>
       <c r="G16" s="31" t="s">
         <v>11</v>
@@ -3453,19 +3004,19 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55">
+      <c r="A17" s="54">
         <v>2996</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="57">
         <v>3000</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="57">
         <v>35</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="57">
         <v>65</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="57">
         <v>3</v>
       </c>
       <c r="F17" s="56">
@@ -3474,7 +3025,7 @@
       <c r="G17" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="7" t="e">
+      <c r="H17" s="60" t="e">
         <f>AVERAGE(I17:S17)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3491,16 +3042,16 @@
       <c r="S17" s="19"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="56"/>
       <c r="G18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="7" t="e">
+      <c r="H18" s="60" t="e">
         <f>AVERAGE(I18:S18)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3517,12 +3068,12 @@
       <c r="S18" s="19"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="27" t="s">
         <v>11</v>
       </c>
@@ -3566,17 +3117,15 @@
     <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="D2:D4"/>
@@ -3593,18 +3142,840 @@
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82E640C-2F62-4701-8259-77B8AC82210F}">
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="35" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2950</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3050</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="4">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="4">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4">
+        <v>65</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>7178208</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1845745</v>
+      </c>
+      <c r="E7" s="13">
+        <v>453365</v>
+      </c>
+      <c r="F7" s="13">
+        <v>576437</v>
+      </c>
+      <c r="G7" s="13">
+        <v>774256</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>437392</v>
+      </c>
+      <c r="D8" s="6">
+        <v>106666</v>
+      </c>
+      <c r="E8" s="6">
+        <v>24011</v>
+      </c>
+      <c r="F8" s="6">
+        <v>31533</v>
+      </c>
+      <c r="G8" s="6">
+        <v>42157</v>
+      </c>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>25264422</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7272961</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1636281</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1969377</v>
+      </c>
+      <c r="G10" s="15">
+        <v>2335616</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1430561</v>
+      </c>
+      <c r="D11" s="6">
+        <v>399042</v>
+      </c>
+      <c r="E11" s="6">
+        <v>81930</v>
+      </c>
+      <c r="F11" s="6">
+        <v>118557</v>
+      </c>
+      <c r="G11" s="6">
+        <v>127748</v>
+      </c>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>34725</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15">
+        <v>3769</v>
+      </c>
+      <c r="G13" s="6">
+        <v>7572</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1144</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>51</v>
+      </c>
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6">
+        <v>120079</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15">
+        <v>4388</v>
+      </c>
+      <c r="G16" s="6">
+        <v>8121</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4354</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>51</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6978273</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1788814</v>
+      </c>
+      <c r="E19" s="6">
+        <v>438921</v>
+      </c>
+      <c r="F19" s="15">
+        <v>483504</v>
+      </c>
+      <c r="G19" s="15">
+        <v>739743</v>
+      </c>
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6">
+        <v>437392</v>
+      </c>
+      <c r="D20" s="6">
+        <v>106666</v>
+      </c>
+      <c r="E20" s="6">
+        <v>24011</v>
+      </c>
+      <c r="F20" s="6">
+        <v>31533</v>
+      </c>
+      <c r="G20" s="6">
+        <v>42157</v>
+      </c>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6">
+        <v>153250</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5918</v>
+      </c>
+      <c r="G22" s="6">
+        <v>8856</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6">
+        <v>11692</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="6">
+        <v>29</v>
+      </c>
+      <c r="G23" s="6">
+        <v>38</v>
+      </c>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="44"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7196071</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1782523</v>
+      </c>
+      <c r="E25" s="6">
+        <v>438169</v>
+      </c>
+      <c r="F25" s="15">
+        <v>496213</v>
+      </c>
+      <c r="G25" s="15">
+        <v>722897</v>
+      </c>
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6">
+        <v>437392</v>
+      </c>
+      <c r="D26" s="6">
+        <v>106666</v>
+      </c>
+      <c r="E26" s="6">
+        <v>24011</v>
+      </c>
+      <c r="F26" s="6">
+        <v>31533</v>
+      </c>
+      <c r="G26" s="6">
+        <v>42157</v>
+      </c>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3219</v>
+      </c>
+      <c r="G28" s="15">
+        <v>7815205</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="6">
+        <v>6</v>
+      </c>
+      <c r="G29" s="6">
+        <v>618031</v>
+      </c>
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6">
+        <v>149270</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3984666</v>
+      </c>
+      <c r="E31" s="6">
+        <v>519977</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3156</v>
+      </c>
+      <c r="G31" s="15">
+        <v>10469</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="6">
+        <v>5091</v>
+      </c>
+      <c r="D32" s="6">
+        <v>196204</v>
+      </c>
+      <c r="E32" s="6">
+        <v>18540</v>
+      </c>
+      <c r="F32" s="6">
+        <v>6</v>
+      </c>
+      <c r="G32" s="6">
+        <v>114</v>
+      </c>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42"/>
+      <c r="B33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="41"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="A19:A21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3613,7 +3984,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3683,19 +4054,19 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55">
+      <c r="A2" s="54">
         <v>2996</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="57">
         <v>3000</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="57">
         <v>35</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="57">
         <v>65</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="57">
         <v>2</v>
       </c>
       <c r="F2" s="56">
@@ -3725,11 +4096,11 @@
       <c r="S2" s="19"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="56"/>
       <c r="G3" s="26" t="s">
         <v>9</v>
@@ -3755,11 +4126,11 @@
       <c r="S3" s="19"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="56"/>
       <c r="G4" s="31" t="s">
         <v>11</v>
@@ -3802,19 +4173,19 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55">
+      <c r="A5" s="54">
         <v>2996</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="57">
         <v>3000</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="57">
         <v>35</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="57">
         <v>65</v>
       </c>
-      <c r="E5" s="54">
+      <c r="E5" s="57">
         <v>2</v>
       </c>
       <c r="F5" s="56">
@@ -3833,11 +4204,11 @@
       <c r="S5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="56"/>
       <c r="G6" s="26" t="s">
         <v>9</v>
@@ -3859,11 +4230,11 @@
       <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="56"/>
       <c r="G7" s="31" t="s">
         <v>11</v>
@@ -3906,19 +4277,19 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55">
+      <c r="A8" s="54">
         <v>2996</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="57">
         <v>3000</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="57">
         <v>35</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="57">
         <v>65</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="57">
         <v>1</v>
       </c>
       <c r="F8" s="56">
@@ -3946,11 +4317,11 @@
       <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="56"/>
       <c r="G9" s="26" t="s">
         <v>9</v>
@@ -3974,11 +4345,11 @@
       <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="56"/>
       <c r="G10" s="31" t="s">
         <v>11</v>
@@ -4021,19 +4392,19 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
+      <c r="A11" s="54">
         <v>2950</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="57">
         <v>3050</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="57">
         <v>0</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="57">
         <v>100</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="57">
         <v>1</v>
       </c>
       <c r="F11" s="56">
@@ -4071,16 +4442,16 @@
       <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="56"/>
       <c r="G12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="60">
         <f>AVERAGE(I12:S12)</f>
         <v>53252</v>
       </c>
@@ -4109,11 +4480,11 @@
       <c r="S12" s="19"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="56"/>
       <c r="G13" s="31" t="s">
         <v>11</v>
@@ -4156,19 +4527,19 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="54">
         <v>2996</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="57">
         <v>3000</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="57">
         <v>0</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="57">
         <v>100</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="57">
         <v>1</v>
       </c>
       <c r="F14" s="56">
@@ -4202,11 +4573,11 @@
       <c r="S14" s="19"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="56"/>
       <c r="G15" s="26" t="s">
         <v>9</v>
@@ -4236,11 +4607,11 @@
       <c r="S15" s="19"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="56"/>
       <c r="G16" s="31" t="s">
         <v>11</v>
@@ -4283,19 +4654,19 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55">
+      <c r="A17" s="54">
         <v>2996</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="57">
         <v>3000</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="57">
         <v>35</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="57">
         <v>65</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="57">
         <v>3</v>
       </c>
       <c r="F17" s="56">
@@ -4321,11 +4692,11 @@
       <c r="S17" s="19"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="56"/>
       <c r="G18" s="26" t="s">
         <v>9</v>
@@ -4347,12 +4718,12 @@
       <c r="S18" s="19"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="27" t="s">
         <v>11</v>
       </c>
@@ -4396,6 +4767,30 @@
     <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
@@ -4408,30 +4803,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\cravethedave\masters\minicpbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77F6788-1EA3-4046-8408-FC055F40AE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9CF65C-0745-43F1-A077-431E8F862E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Random 20" sheetId="5" r:id="rId2"/>
     <sheet name="Heuristic 30" sheetId="4" r:id="rId3"/>
     <sheet name="Random 30" sheetId="6" r:id="rId4"/>
+    <sheet name="Template" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="110">
   <si>
     <t>MinWt</t>
   </si>
@@ -326,9 +327,6 @@
     <t>OOM</t>
   </si>
   <si>
-    <t>maxMarginal Restart</t>
-  </si>
-  <si>
     <t>BrCSCSSSc1ccoc1C2SS2_</t>
   </si>
   <si>
@@ -359,10 +357,19 @@
     <t>maxMarginal Strength</t>
   </si>
   <si>
-    <t>minEntropy Biased</t>
+    <t>minEntropy BiasedWheel</t>
   </si>
   <si>
     <t>domRandom</t>
+  </si>
+  <si>
+    <t>maxMarginal Restart tiebreak=100</t>
+  </si>
+  <si>
+    <t>maxMarginal Restart tiebreak=10</t>
+  </si>
+  <si>
+    <t>maxMarginal LDS</t>
   </si>
 </sst>
 </file>
@@ -392,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -955,11 +962,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,9 +1071,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1067,6 +1123,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1141,22 +1209,43 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1439,29 +1528,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26AE820-C7D9-41F1-B536-A9AB6B72D3DB}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="2">
         <v>2996</v>
       </c>
@@ -1482,10 +1572,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="4">
         <v>3000</v>
       </c>
@@ -1506,10 +1596,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="4">
         <v>35</v>
       </c>
@@ -1530,10 +1620,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="4">
         <v>65</v>
       </c>
@@ -1554,10 +1644,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -1578,10 +1668,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="9">
         <v>0</v>
       </c>
@@ -1602,7 +1692,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1617,18 +1707,18 @@
       <c r="E7" s="6">
         <v>15554</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="53" t="s">
+      <c r="F7" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="56" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1641,12 +1731,12 @@
       <c r="E8" s="6">
         <v>1375</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1659,12 +1749,12 @@
       <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="44"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1679,18 +1769,18 @@
       <c r="E10" s="6">
         <v>46626</v>
       </c>
-      <c r="F10" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="66" t="s">
+      <c r="F10" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="68" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1703,12 +1793,12 @@
       <c r="E11" s="6">
         <v>4585</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1721,50 +1811,72 @@
       <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>107</v>
+      <c r="A13" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
+      <c r="C13" s="6">
+        <v>4201093</v>
+      </c>
+      <c r="D13" s="6">
+        <v>249478</v>
+      </c>
+      <c r="E13" s="6">
+        <v>14341</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
+      <c r="C14" s="6">
+        <v>680697</v>
+      </c>
+      <c r="D14" s="6">
+        <v>39735</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1375</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
+      <c r="C15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1785,12 +1897,12 @@
       <c r="G16" s="6">
         <v>2088863</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
@@ -1809,10 +1921,10 @@
       <c r="G17" s="6">
         <v>316929</v>
       </c>
-      <c r="H17" s="40"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
@@ -1831,11 +1943,11 @@
       <c r="G18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="44"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>95</v>
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>107</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>8</v>
@@ -1855,12 +1967,12 @@
       <c r="G19" s="6">
         <v>6575921</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
@@ -1879,15 +1991,15 @@
       <c r="G20" s="6">
         <v>978978</v>
       </c>
-      <c r="H20" s="40"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>17</v>
@@ -1896,169 +2008,167 @@
         <v>18</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>105</v>
+      <c r="A22" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="6">
-        <v>4173638</v>
-      </c>
-      <c r="D22" s="6">
-        <v>249450</v>
-      </c>
-      <c r="E22" s="6">
-        <v>17078</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="39"/>
+        <v>2698586</v>
+      </c>
+      <c r="D22" s="15">
+        <v>73885</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1768</v>
+      </c>
+      <c r="F22" s="15">
+        <v>139004</v>
+      </c>
+      <c r="G22" s="6">
+        <v>6687256</v>
+      </c>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6">
-        <v>680697</v>
+        <v>293163</v>
       </c>
       <c r="D23" s="6">
-        <v>39735</v>
+        <v>7137</v>
       </c>
       <c r="E23" s="6">
-        <v>1375</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>16807</v>
+      </c>
+      <c r="G23" s="6">
+        <v>979001</v>
+      </c>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="44"/>
+        <v>95</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>10</v>
+      <c r="A25" s="45" t="s">
+        <v>104</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="6">
-        <v>1477811</v>
+        <v>4173638</v>
       </c>
       <c r="D25" s="6">
-        <v>27648</v>
+        <v>249450</v>
       </c>
       <c r="E25" s="6">
-        <v>1746</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1065779</v>
-      </c>
-      <c r="G25" s="6">
-        <v>10930316</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>15</v>
-      </c>
+        <v>17078</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="6">
-        <v>151118</v>
+        <v>680697</v>
       </c>
       <c r="D26" s="6">
-        <v>2663</v>
+        <v>39735</v>
       </c>
       <c r="E26" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>176780</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1602042</v>
-      </c>
-      <c r="H26" s="40"/>
+        <v>1375</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="44"/>
+        <v>14</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>106</v>
+      <c r="A28" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="6">
-        <v>4271434</v>
+        <v>4257696</v>
       </c>
       <c r="D28" s="6">
-        <v>250258</v>
+        <v>246403</v>
       </c>
       <c r="E28" s="6">
-        <v>16348</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="39"/>
+        <v>14957</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
@@ -2071,12 +2181,12 @@
       <c r="E29" s="6">
         <v>1375</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="40"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
@@ -2089,174 +2199,278 @@
       <c r="E30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="44"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>27</v>
+      <c r="A31" s="45" t="s">
+        <v>10</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="6">
-        <v>6571323</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>94</v>
+        <v>1477811</v>
+      </c>
+      <c r="D31" s="15">
+        <v>27648</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1746</v>
       </c>
       <c r="F31" s="6">
-        <v>2020330</v>
-      </c>
-      <c r="G31" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>94</v>
+        <v>1065779</v>
+      </c>
+      <c r="G31" s="6">
+        <v>10930316</v>
+      </c>
+      <c r="H31" s="38" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="6">
-        <v>524117</v>
-      </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
+        <v>151118</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2663</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2</v>
+      </c>
       <c r="F32" s="6">
-        <v>223223</v>
-      </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="40"/>
+        <v>176780</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1602042</v>
+      </c>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
+        <v>21</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="F33" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="44"/>
+        <v>24</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
-        <v>28</v>
+      <c r="A34" s="45" t="s">
+        <v>105</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="6">
-        <v>599723</v>
+        <v>4271434</v>
       </c>
       <c r="D34" s="6">
-        <v>51328</v>
+        <v>250258</v>
       </c>
       <c r="E34" s="6">
-        <v>21979</v>
-      </c>
-      <c r="F34" s="6">
-        <v>40524</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>15</v>
-      </c>
+        <v>16348</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="6">
+        <v>680697</v>
+      </c>
+      <c r="D35" s="6">
+        <v>39735</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1375</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="15">
+        <v>6571323</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="6">
+        <v>2020330</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="6">
+        <v>524117</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6">
+        <v>223223</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="37"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="15">
+        <v>599723</v>
+      </c>
+      <c r="D40" s="15">
+        <v>51328</v>
+      </c>
+      <c r="E40" s="15">
+        <v>21979</v>
+      </c>
+      <c r="F40" s="15">
+        <v>40524</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="6">
         <v>54968</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D41" s="6">
         <v>3498</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E41" s="6">
         <v>1217</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F41" s="6">
         <v>2969</v>
       </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="40"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="7" t="s">
+      <c r="G41" s="6"/>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="74"/>
+      <c r="B42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C42" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D42" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E42" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F42" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="41"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="61"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="62"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-    </row>
+      <c r="G42" s="76"/>
+      <c r="H42" s="39"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="34">
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="H28:H30"/>
     <mergeCell ref="F28:F30"/>
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="H13:H15"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H25:H27"/>
@@ -2267,9 +2481,6 @@
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A25:A27"/>
@@ -2281,13 +2492,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="H34:H36"/>
     <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="G31:G33"/>
     <mergeCell ref="A34:A36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2298,7 +2503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315A91F6-4EB1-4D9C-8ABD-16875F3D5B54}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2311,85 +2516,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54">
+      <c r="A2" s="57">
         <v>2996</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="60">
         <v>3000</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="60">
         <v>35</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="60">
         <v>65</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="60">
         <v>2</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="59">
         <v>0</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="60">
+      <c r="H2" s="63">
         <f>AVERAGE(I2:S2)</f>
         <v>5494529.9090909092</v>
       </c>
@@ -2423,21 +2628,21 @@
       <c r="R2" s="16">
         <v>8301834</v>
       </c>
-      <c r="S2" s="19">
+      <c r="S2" s="18">
         <v>5531</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="26" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="63">
         <f>AVERAGE(I3:S3)</f>
         <v>1023359.7272727273</v>
       </c>
@@ -2471,80 +2676,80 @@
       <c r="R3" s="16">
         <v>1309015</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="18">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="31" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="M4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="35" t="s">
+      <c r="O4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="35" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54">
+      <c r="A5" s="57">
         <v>2996</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="60">
         <v>3000</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="60">
         <v>35</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="60">
         <v>65</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="60">
         <v>2</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="59">
         <v>-1</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="63">
         <f>AVERAGE(I5:S5)</f>
         <v>678498.66666666663</v>
       </c>
@@ -2557,19 +2762,19 @@
       <c r="K5" s="16">
         <v>676938</v>
       </c>
-      <c r="S5" s="20"/>
+      <c r="S5" s="19"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="26" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="63">
         <f>AVERAGE(I6:S6)</f>
         <v>132138.66666666666</v>
       </c>
@@ -2589,78 +2794,78 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-      <c r="S6" s="19"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="31" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="34" t="s">
+      <c r="L7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54">
+      <c r="A8" s="57">
         <v>2996</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="60">
         <v>3000</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="60">
         <v>35</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="60">
         <v>65</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="60">
         <v>1</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="59">
         <v>2</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="63">
         <f>AVERAGE(I8:S8)</f>
         <v>11810440</v>
       </c>
@@ -2682,19 +2887,19 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="26" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="63">
         <f>AVERAGE(I9:S9)</f>
         <v>2516569.25</v>
       </c>
@@ -2716,78 +2921,78 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
-      <c r="S9" s="19"/>
+      <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="31" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="36" t="s">
+      <c r="M10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54">
+      <c r="A11" s="57">
         <v>2950</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="60">
         <v>3050</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="60">
         <v>0</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="60">
         <v>100</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="60">
         <v>1</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="59">
         <v>3</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="63">
         <f>AVERAGE(I11:S11)</f>
         <v>2371034.5</v>
       </c>
@@ -2805,19 +3010,19 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="19"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="26" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="63">
         <f>AVERAGE(I12:S12)</f>
         <v>583362</v>
       </c>
@@ -2835,78 +3040,78 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="19"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="31" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="36" t="s">
+      <c r="K13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+      <c r="A14" s="57">
         <v>2996</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="60">
         <v>3000</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="60">
         <v>0</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="60">
         <v>100</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="60">
         <v>1</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="59">
         <v>3</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="63">
         <f>AVERAGE(I14:S14)</f>
         <v>123754.5</v>
       </c>
@@ -2924,19 +3129,19 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
-      <c r="S14" s="19"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="26" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="63">
         <f>AVERAGE(I15:S15)</f>
         <v>18574</v>
       </c>
@@ -2954,78 +3159,78 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="19"/>
+      <c r="S15" s="18"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="31" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" s="36" t="s">
+      <c r="K16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54">
+      <c r="A17" s="57">
         <v>2996</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="60">
         <v>3000</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="60">
         <v>35</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="60">
         <v>65</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="60">
         <v>3</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="59">
         <v>-1</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="60" t="e">
+      <c r="H17" s="63" t="e">
         <f>AVERAGE(I17:S17)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3039,19 +3244,19 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
-      <c r="S17" s="19"/>
+      <c r="S17" s="18"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="26" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="60" t="e">
+      <c r="H18" s="63" t="e">
         <f>AVERAGE(I18:S18)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3065,52 +3270,52 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
-      <c r="S18" s="19"/>
+      <c r="S18" s="18"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="27" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="26" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="S19" s="22" t="s">
+      <c r="I19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3161,24 +3366,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82E640C-2F62-4701-8259-77B8AC82210F}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.140625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="35" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="2">
         <v>2996</v>
       </c>
@@ -3199,10 +3408,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="4">
         <v>3000</v>
       </c>
@@ -3223,10 +3432,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="4">
         <v>35</v>
       </c>
@@ -3247,10 +3456,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="4">
         <v>65</v>
       </c>
@@ -3271,10 +3480,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -3295,10 +3504,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="9">
         <v>0</v>
       </c>
@@ -3319,7 +3528,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3340,12 +3549,12 @@
       <c r="G7" s="13">
         <v>774256</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="56" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
@@ -3364,10 +3573,10 @@
       <c r="G8" s="6">
         <v>42157</v>
       </c>
-      <c r="H8" s="40"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -3386,10 +3595,10 @@
       <c r="G9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="47"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="45" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3410,12 +3619,12 @@
       <c r="G10" s="15">
         <v>2335616</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3434,10 +3643,10 @@
       <c r="G11" s="6">
         <v>127748</v>
       </c>
-      <c r="H11" s="40"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -3456,288 +3665,286 @@
       <c r="G12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>7</v>
+      <c r="A13" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="6">
-        <v>34725</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>15</v>
+        <v>7032317</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1857460</v>
+      </c>
+      <c r="E13" s="6">
+        <v>454777</v>
       </c>
       <c r="F13" s="15">
-        <v>3769</v>
-      </c>
-      <c r="G13" s="6">
-        <v>7572</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>15</v>
-      </c>
+        <v>492081</v>
+      </c>
+      <c r="G13" s="15">
+        <v>727568</v>
+      </c>
+      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>1144</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+        <v>437392</v>
+      </c>
+      <c r="D14" s="6">
+        <v>106666</v>
+      </c>
+      <c r="E14" s="6">
+        <v>24011</v>
+      </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>31533</v>
       </c>
       <c r="G14" s="6">
-        <v>51</v>
-      </c>
-      <c r="H14" s="40"/>
+        <v>42157</v>
+      </c>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="F15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="44"/>
+        <v>36</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
-        <v>95</v>
+      <c r="A16" s="45" t="s">
+        <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="6">
-        <v>120079</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="37" t="s">
+        <v>34725</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="15">
-        <v>4388</v>
+        <v>3769</v>
       </c>
       <c r="G16" s="6">
-        <v>8121</v>
-      </c>
-      <c r="H16" s="39" t="s">
+        <v>7572</v>
+      </c>
+      <c r="H16" s="42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6">
-        <v>4354</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+        <v>1144</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="6">
         <v>1</v>
       </c>
       <c r="G17" s="6">
         <v>51</v>
       </c>
-      <c r="H17" s="40"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="47"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
-        <v>105</v>
+      <c r="A19" s="45" t="s">
+        <v>107</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="6">
-        <v>6978273</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1788814</v>
-      </c>
-      <c r="E19" s="6">
-        <v>438921</v>
+        <v>120079</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="F19" s="15">
-        <v>483504</v>
-      </c>
-      <c r="G19" s="15">
-        <v>739743</v>
-      </c>
-      <c r="H19" s="39"/>
+        <v>4388</v>
+      </c>
+      <c r="G19" s="6">
+        <v>8121</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>437392</v>
-      </c>
-      <c r="D20" s="6">
-        <v>106666</v>
-      </c>
-      <c r="E20" s="6">
-        <v>24011</v>
-      </c>
+        <v>4354</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="6">
-        <v>31533</v>
+        <v>1</v>
       </c>
       <c r="G20" s="6">
-        <v>42157</v>
-      </c>
-      <c r="H20" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>39</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="44"/>
+        <v>97</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>10</v>
+      <c r="A22" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="6">
-        <v>153250</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="6">
-        <v>5918</v>
+        <v>109243</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="15">
+        <v>3663</v>
       </c>
       <c r="G22" s="6">
-        <v>8856</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>15</v>
-      </c>
+        <v>8485</v>
+      </c>
+      <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6">
-        <v>11692</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
+        <v>4354</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="6">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G23" s="6">
-        <v>38</v>
-      </c>
-      <c r="H23" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="44"/>
+        <v>47</v>
+      </c>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
-        <v>106</v>
+      <c r="A25" s="45" t="s">
+        <v>104</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="6">
-        <v>7196071</v>
+        <v>6978273</v>
       </c>
       <c r="D25" s="6">
-        <v>1782523</v>
+        <v>1788814</v>
       </c>
       <c r="E25" s="6">
-        <v>438169</v>
+        <v>438921</v>
       </c>
       <c r="F25" s="15">
-        <v>496213</v>
+        <v>483504</v>
       </c>
       <c r="G25" s="15">
-        <v>722897</v>
-      </c>
-      <c r="H25" s="39"/>
+        <v>739743</v>
+      </c>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
@@ -3756,10 +3963,10 @@
       <c r="G26" s="6">
         <v>42157</v>
       </c>
-      <c r="H26" s="40"/>
+      <c r="H26" s="43"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="11" t="s">
         <v>11</v>
       </c>
@@ -3778,171 +3985,360 @@
       <c r="G27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="44"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>27</v>
+      <c r="A28" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="6">
-        <v>3219</v>
+      <c r="C28" s="6">
+        <v>7353977</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1848249</v>
+      </c>
+      <c r="E28" s="6">
+        <v>457131</v>
+      </c>
+      <c r="F28" s="15">
+        <v>511366</v>
       </c>
       <c r="G28" s="15">
-        <v>7815205</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>94</v>
-      </c>
+        <v>759941</v>
+      </c>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
+      <c r="C29" s="6">
+        <v>437392</v>
+      </c>
+      <c r="D29" s="6">
+        <v>106666</v>
+      </c>
+      <c r="E29" s="6">
+        <v>24011</v>
+      </c>
       <c r="F29" s="6">
-        <v>6</v>
+        <v>31533</v>
       </c>
       <c r="G29" s="6">
-        <v>618031</v>
-      </c>
-      <c r="H29" s="40"/>
+        <v>42157</v>
+      </c>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="12" t="s">
-        <v>40</v>
+      <c r="C30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="44"/>
+        <v>37</v>
+      </c>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>28</v>
+      <c r="A31" s="45" t="s">
+        <v>10</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="6">
-        <v>149270</v>
-      </c>
-      <c r="D31" s="6">
-        <v>3984666</v>
-      </c>
-      <c r="E31" s="6">
-        <v>519977</v>
+        <v>153250</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="F31" s="6">
-        <v>3156</v>
-      </c>
-      <c r="G31" s="15">
-        <v>10469</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>94</v>
+        <v>5918</v>
+      </c>
+      <c r="G31" s="6">
+        <v>8856</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="6">
+        <v>11692</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="6">
+        <v>29</v>
+      </c>
+      <c r="G32" s="6">
+        <v>38</v>
+      </c>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="47"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <v>7196071</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1782523</v>
+      </c>
+      <c r="E34" s="6">
+        <v>438169</v>
+      </c>
+      <c r="F34" s="15">
+        <v>496213</v>
+      </c>
+      <c r="G34" s="15">
+        <v>722897</v>
+      </c>
+      <c r="H34" s="42"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6">
+        <v>437392</v>
+      </c>
+      <c r="D35" s="6">
+        <v>106666</v>
+      </c>
+      <c r="E35" s="6">
+        <v>24011</v>
+      </c>
+      <c r="F35" s="6">
+        <v>31533</v>
+      </c>
+      <c r="G35" s="6">
+        <v>42157</v>
+      </c>
+      <c r="H35" s="43"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="6">
+        <v>3219</v>
+      </c>
+      <c r="G37" s="15">
+        <v>7815205</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="6">
+        <v>6</v>
+      </c>
+      <c r="G38" s="6">
+        <v>618031</v>
+      </c>
+      <c r="H38" s="43"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6">
+        <v>149270</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3984666</v>
+      </c>
+      <c r="E40" s="6">
+        <v>519977</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3156</v>
+      </c>
+      <c r="G40" s="15">
+        <v>10469</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="6">
         <v>5091</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D41" s="6">
         <v>196204</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E41" s="6">
         <v>18540</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F41" s="6">
         <v>6</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G41" s="6">
         <v>114</v>
       </c>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="7" t="s">
+      <c r="H41" s="43"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="74"/>
+      <c r="B42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="41"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="H42" s="44"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="38">
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="H19:H21"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="H25:H27"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -3957,22 +4353,16 @@
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
     <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="H25:H27"/>
     <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="H13:H15"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3997,82 +4387,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54">
+      <c r="A2" s="57">
         <v>2996</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="60">
         <v>3000</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="60">
         <v>35</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="60">
         <v>65</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="60">
         <v>2</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="59">
         <v>0</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>62</v>
       </c>
       <c r="H2" s="7">
@@ -4093,16 +4483,16 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
-      <c r="S2" s="19"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="26" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="7">
@@ -4123,75 +4513,75 @@
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
-      <c r="S3" s="19"/>
+      <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="31" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="36" t="s">
+      <c r="K4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54">
+      <c r="A5" s="57">
         <v>2996</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="60">
         <v>3000</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="60">
         <v>35</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="60">
         <v>65</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="60">
         <v>2</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="59">
         <v>-1</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>62</v>
       </c>
       <c r="H5" s="7" t="e">
@@ -4201,16 +4591,16 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
-      <c r="S5" s="20"/>
+      <c r="S5" s="19"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="26" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="25" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="7" t="e">
@@ -4227,75 +4617,75 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-      <c r="S6" s="19"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="31" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="36" t="s">
+      <c r="I7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54">
+      <c r="A8" s="57">
         <v>2996</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="60">
         <v>3000</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="60">
         <v>35</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="60">
         <v>65</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="60">
         <v>1</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="59">
         <v>2</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="7">
@@ -4314,16 +4704,16 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="19"/>
+      <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="26" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="25" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="7">
@@ -4342,75 +4732,75 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
-      <c r="S9" s="19"/>
+      <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="31" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S10" s="36" t="s">
+      <c r="J10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54">
+      <c r="A11" s="57">
         <v>2950</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="60">
         <v>3050</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="60">
         <v>0</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="60">
         <v>100</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="60">
         <v>1</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="59">
         <v>3</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>62</v>
       </c>
       <c r="H11" s="7">
@@ -4439,19 +4829,19 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="19"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="26" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="63">
         <f>AVERAGE(I12:S12)</f>
         <v>53252</v>
       </c>
@@ -4477,75 +4867,75 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="19"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="31" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="35" t="s">
+      <c r="M13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="35" t="s">
+      <c r="N13" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="N13" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R13" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="36" t="s">
+      <c r="O13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54">
+      <c r="A14" s="57">
         <v>2996</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="60">
         <v>3000</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="60">
         <v>0</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="60">
         <v>100</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="60">
         <v>1</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="59">
         <v>3</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="7">
@@ -4570,16 +4960,16 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
-      <c r="S14" s="19"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="26" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="25" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="7">
@@ -4604,75 +4994,75 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="19"/>
+      <c r="S15" s="18"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="31" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="R16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="S16" s="36" t="s">
+      <c r="M16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54">
+      <c r="A17" s="57">
         <v>2996</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="60">
         <v>3000</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="60">
         <v>35</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="60">
         <v>65</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="60">
         <v>3</v>
       </c>
-      <c r="F17" s="56">
+      <c r="F17" s="59">
         <v>-1</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="25" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="7" t="e">
@@ -4689,16 +5079,16 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
-      <c r="S17" s="19"/>
+      <c r="S17" s="18"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="26" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="25" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="7" t="e">
@@ -4715,52 +5105,52 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
-      <c r="S18" s="19"/>
+      <c r="S18" s="18"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="27" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="26" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="R19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="S19" s="22" t="s">
+      <c r="I19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="S19" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4806,4 +5196,676 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB4C650-4BC4-4BA5-BA14-D741BADC8289}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2950</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3050</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="4">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="4">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4">
+        <v>65</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="56"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="47"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="43"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="69"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="70"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="47"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="47"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="71"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="69"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="70"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="47"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="71"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="69"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="70"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="42"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="47"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="42"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="43"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="46"/>
+      <c r="B36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="47"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="42"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="43"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="B39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="42"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="43"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="74"/>
+      <c r="B42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="44"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\cravethedave\masters\minicpbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9CF65C-0745-43F1-A077-431E8F862E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BE0462-2D84-43E0-91C9-3C1BC5A69795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Heuristic 20" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Heuristic 30" sheetId="4" r:id="rId3"/>
     <sheet name="Random 30" sheetId="6" r:id="rId4"/>
     <sheet name="Template" sheetId="7" r:id="rId5"/>
+    <sheet name="H20-After Changes" sheetId="8" r:id="rId6"/>
+    <sheet name="H30-After Changes" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="158">
   <si>
     <t>MinWt</t>
   </si>
@@ -370,6 +372,150 @@
   </si>
   <si>
     <t>maxMarginal LDS</t>
+  </si>
+  <si>
+    <t>CCCCCC1C1(OSSSSS2)S2</t>
+  </si>
+  <si>
+    <t>ClSCSCc1cscc2C1OSSS2_</t>
+  </si>
+  <si>
+    <t>SSC(C1CCCSC2)C1SSSO2</t>
+  </si>
+  <si>
+    <t>CCC(C(CSCS))OC1SSSS1</t>
+  </si>
+  <si>
+    <t>OC(C(SC1SSO1)(SSSS))</t>
+  </si>
+  <si>
+    <t>OC(SN1SS1)(O)(SSSSO)</t>
+  </si>
+  <si>
+    <t>c1cocc2CSSSC1CSSS2__</t>
+  </si>
+  <si>
+    <t>SSC1C(C2CSCCO1)SSSC2</t>
+  </si>
+  <si>
+    <t>BrC(SC(SS))S(C1SSSS1)</t>
+  </si>
+  <si>
+    <t>BrC(SN1SS1)(S)(SSSSO)</t>
+  </si>
+  <si>
+    <t>Brc1ccsc2COCSC2SSSS1_</t>
+  </si>
+  <si>
+    <t>CSC1C(C2COCC1)SSSSS2</t>
+  </si>
+  <si>
+    <t>CCSC(C(COCS))C1SSSS1</t>
+  </si>
+  <si>
+    <t>IC(SC(C1(SSS1))SSSS)</t>
+  </si>
+  <si>
+    <t>FC(SN1SS1)S(O(SSSS))</t>
+  </si>
+  <si>
+    <t>OSC(CSSCSC1CC2)C2SS1</t>
+  </si>
+  <si>
+    <t>SCSC(C(SC1CSCS1))SCO</t>
+  </si>
+  <si>
+    <t>SSSSC(SC(C1(OSO1))S)</t>
+  </si>
+  <si>
+    <t>SC(SCCSSC1CSS2)C1OC2</t>
+  </si>
+  <si>
+    <t>SSOSC(OC1(S)SOS1)(S)</t>
+  </si>
+  <si>
+    <t>minEntropy BiasedWheel Restarts</t>
+  </si>
+  <si>
+    <t>minEntropy NoRestarts</t>
+  </si>
+  <si>
+    <t>maxMarginal LDS NoRestart</t>
+  </si>
+  <si>
+    <t>maxMarginal Strength NoRestart</t>
+  </si>
+  <si>
+    <t>maxMarginal NoRestart</t>
+  </si>
+  <si>
+    <t>SO(OSNO(SSSC1(SS1)))</t>
+  </si>
+  <si>
+    <t>IN(OSS)(S(SSC1SSS1))</t>
+  </si>
+  <si>
+    <t>IN(O(SC1SSSSS1))S(S)</t>
+  </si>
+  <si>
+    <t>CCCCSCSC1OSC1(SS2)S2</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCCCC1C1(N=N2)N2</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCCCCC1(N=N1)(N)</t>
+  </si>
+  <si>
+    <t>IN(O[C@@]c1ccno1)OSSO(SSC(#N))</t>
+  </si>
+  <si>
+    <t>IN(O[C@@]c1ccns1)SSSS(C(=S)Br)_</t>
+  </si>
+  <si>
+    <t>NCCOCCCc1ccccc2CCNN[N+]C1OOC2_</t>
+  </si>
+  <si>
+    <t>S/N=N\C(Sc1[nH]nnc1N(S(SOS))I)</t>
+  </si>
+  <si>
+    <t>SSC\C(SC1(S[N+](=COCl)SN1))=N\S</t>
+  </si>
+  <si>
+    <t>NC(C(SCCCC(COC1CCCO1))C2OOOO2)</t>
+  </si>
+  <si>
+    <t>IC(SSC(SC(C[C@@]1ON=N1)))SSS__</t>
+  </si>
+  <si>
+    <t>IC(C(SC(C)CCC1CCCC1)COCCC=CSO)</t>
+  </si>
+  <si>
+    <t>IC(SSC(SC1CC(C[C@@]I)O1)Cl)SSS_</t>
+  </si>
+  <si>
+    <t>c1nccn2COCCCCCOCC#CC#CC1C=COC2</t>
+  </si>
+  <si>
+    <t>IC(C(CNCC(C)C=C)COCCC1CCSCOS1)</t>
+  </si>
+  <si>
+    <t>IC(SSC(SC(C[C@@H]1ON=N1)SSSCl))</t>
+  </si>
+  <si>
+    <t>NC(C(C(S)C1CCCON1)COOOCOCl)CNN_</t>
+  </si>
+  <si>
+    <t>IC(SSSSC(C(S)))C1CSNNN1_______</t>
+  </si>
+  <si>
+    <t>C=NNNC=CCCN=CCc1cncc1c2nccc2NC</t>
+  </si>
+  <si>
+    <t>IOCNC(OCO(C1NNON1))NNONC(C)CNN</t>
+  </si>
+  <si>
+    <t>BrO(SNSSC#CNC1S[C@](S)(S)[N+]1)</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,113 +1283,122 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1528,10 +1683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26AE820-C7D9-41F1-B536-A9AB6B72D3DB}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,10 +1706,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="2">
         <v>2996</v>
       </c>
@@ -1572,10 +1730,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="4">
         <v>3000</v>
       </c>
@@ -1596,10 +1754,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="4">
         <v>35</v>
       </c>
@@ -1620,10 +1778,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="4">
         <v>65</v>
       </c>
@@ -1644,10 +1802,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -1668,10 +1826,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9">
         <v>0</v>
       </c>
@@ -1692,7 +1850,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1707,18 +1865,18 @@
       <c r="E7" s="6">
         <v>15554</v>
       </c>
-      <c r="F7" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="56" t="s">
+      <c r="F7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1731,12 +1889,12 @@
       <c r="E8" s="6">
         <v>1375</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="43"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1749,12 +1907,12 @@
       <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="47"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1769,18 +1927,18 @@
       <c r="E10" s="6">
         <v>46626</v>
       </c>
-      <c r="F10" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="68" t="s">
+      <c r="F10" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="58" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1793,12 +1951,12 @@
       <c r="E11" s="6">
         <v>4585</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1811,12 +1969,12 @@
       <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="50" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1831,16 +1989,16 @@
       <c r="E13" s="6">
         <v>14341</v>
       </c>
-      <c r="F13" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="68"/>
+      <c r="F13" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1853,12 +2011,12 @@
       <c r="E14" s="6">
         <v>1375</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
@@ -1871,12 +2029,12 @@
       <c r="E15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1897,12 +2055,12 @@
       <c r="G16" s="6">
         <v>2088863</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="62" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
@@ -1921,10 +2079,10 @@
       <c r="G17" s="6">
         <v>316929</v>
       </c>
-      <c r="H17" s="43"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
@@ -1943,10 +2101,10 @@
       <c r="G18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="47"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1967,12 +2125,12 @@
       <c r="G19" s="6">
         <v>6575921</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="62" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
@@ -1991,10 +2149,10 @@
       <c r="G20" s="6">
         <v>978978</v>
       </c>
-      <c r="H20" s="43"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
@@ -2013,10 +2171,10 @@
       <c r="G21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="47"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>108</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -2040,7 +2198,7 @@
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
@@ -2062,7 +2220,7 @@
       <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="11" t="s">
         <v>11</v>
       </c>
@@ -2084,7 +2242,7 @@
       <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -2099,16 +2257,16 @@
       <c r="E25" s="6">
         <v>17078</v>
       </c>
-      <c r="F25" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="42"/>
+      <c r="F25" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
@@ -2121,12 +2279,12 @@
       <c r="E26" s="6">
         <v>1375</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="43"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="11" t="s">
         <v>11</v>
       </c>
@@ -2139,12 +2297,12 @@
       <c r="E27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="47"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="50" t="s">
         <v>109</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -2159,16 +2317,16 @@
       <c r="E28" s="6">
         <v>14957</v>
       </c>
-      <c r="F28" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="40" t="s">
+      <c r="F28" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="54" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
@@ -2181,12 +2339,12 @@
       <c r="E29" s="6">
         <v>1375</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
@@ -2199,12 +2357,12 @@
       <c r="E30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -2230,7 +2388,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="7" t="s">
         <v>9</v>
       </c>
@@ -2252,7 +2410,7 @@
       <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
@@ -2274,7 +2432,7 @@
       <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="50" t="s">
         <v>105</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -2298,7 +2456,7 @@
       <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
@@ -2316,7 +2474,7 @@
       <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="11" t="s">
         <v>11</v>
       </c>
@@ -2334,7 +2492,7 @@
       <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -2360,7 +2518,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="7" t="s">
         <v>9</v>
       </c>
@@ -2376,7 +2534,7 @@
       <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="11" t="s">
         <v>11</v>
       </c>
@@ -2392,10 +2550,10 @@
       <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="15">
@@ -2418,7 +2576,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="7" t="s">
         <v>9</v>
       </c>
@@ -2438,39 +2596,39 @@
       <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="75" t="s">
+      <c r="D42" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="75" t="s">
+      <c r="E42" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="75" t="s">
+      <c r="F42" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G42" s="76"/>
+      <c r="G42" s="49"/>
       <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H25:H27"/>
@@ -2481,17 +2639,17 @@
     <mergeCell ref="H10:H12"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A34:A36"/>
   </mergeCells>
@@ -2501,10 +2659,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315A91F6-4EB1-4D9C-8ABD-16875F3D5B54}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,28 +2734,28 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57">
+      <c r="A2" s="71">
         <v>2996</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="70">
         <v>3000</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="70">
         <v>35</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="70">
         <v>65</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="70">
         <v>2</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="72">
         <v>0</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="63">
+      <c r="H2" s="40">
         <f>AVERAGE(I2:S2)</f>
         <v>5494529.9090909092</v>
       </c>
@@ -2633,16 +2794,16 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="59"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="40">
         <f>AVERAGE(I3:S3)</f>
         <v>1023359.7272727273</v>
       </c>
@@ -2681,12 +2842,12 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="30" t="s">
         <v>11</v>
       </c>
@@ -2728,28 +2889,28 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57">
+      <c r="A5" s="71">
         <v>2996</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="70">
         <v>3000</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="70">
         <v>35</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="70">
         <v>65</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="70">
         <v>2</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="72">
         <v>-1</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="40">
         <f>AVERAGE(I5:S5)</f>
         <v>678498.66666666663</v>
       </c>
@@ -2765,16 +2926,16 @@
       <c r="S5" s="19"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="63">
+      <c r="H6" s="40">
         <f>AVERAGE(I6:S6)</f>
         <v>132138.66666666666</v>
       </c>
@@ -2797,12 +2958,12 @@
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="30" t="s">
         <v>11</v>
       </c>
@@ -2844,28 +3005,28 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57">
+      <c r="A8" s="71">
         <v>2996</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="70">
         <v>3000</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="70">
         <v>35</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="70">
         <v>65</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="70">
         <v>1</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="72">
         <v>2</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="63">
+      <c r="H8" s="40">
         <f>AVERAGE(I8:S8)</f>
         <v>11810440</v>
       </c>
@@ -2890,16 +3051,16 @@
       <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="40">
         <f>AVERAGE(I9:S9)</f>
         <v>2516569.25</v>
       </c>
@@ -2924,12 +3085,12 @@
       <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="57"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="30" t="s">
         <v>11</v>
       </c>
@@ -2971,28 +3132,28 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57">
+      <c r="A11" s="71">
         <v>2950</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="70">
         <v>3050</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="70">
         <v>0</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="70">
         <v>100</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="70">
         <v>1</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="72">
         <v>3</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="40">
         <f>AVERAGE(I11:S11)</f>
         <v>2371034.5</v>
       </c>
@@ -3013,16 +3174,16 @@
       <c r="S11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="40">
         <f>AVERAGE(I12:S12)</f>
         <v>583362</v>
       </c>
@@ -3043,12 +3204,12 @@
       <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="30" t="s">
         <v>11</v>
       </c>
@@ -3090,28 +3251,28 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="57">
+      <c r="A14" s="71">
         <v>2996</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="70">
         <v>3000</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="70">
         <v>0</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="70">
         <v>100</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="70">
         <v>1</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="72">
         <v>3</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="40">
         <f>AVERAGE(I14:S14)</f>
         <v>123754.5</v>
       </c>
@@ -3132,16 +3293,16 @@
       <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="40">
         <f>AVERAGE(I15:S15)</f>
         <v>18574</v>
       </c>
@@ -3162,12 +3323,12 @@
       <c r="S15" s="18"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="59"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="30" t="s">
         <v>11</v>
       </c>
@@ -3209,28 +3370,28 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57">
+      <c r="A17" s="71">
         <v>2996</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="70">
         <v>3000</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="70">
         <v>35</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="70">
         <v>65</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="70">
         <v>3</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="72">
         <v>-1</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="63" t="e">
+      <c r="H17" s="40" t="e">
         <f>AVERAGE(I17:S17)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3247,16 +3408,16 @@
       <c r="S17" s="18"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="59"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="63" t="e">
+      <c r="H18" s="40" t="e">
         <f>AVERAGE(I18:S18)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3273,12 +3434,12 @@
       <c r="S18" s="18"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="61"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="26" t="s">
         <v>11</v>
       </c>
@@ -3322,19 +3483,17 @@
     <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="E5:E7"/>
@@ -3347,17 +3506,19 @@
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3366,10 +3527,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82E640C-2F62-4701-8259-77B8AC82210F}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,10 +3548,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="2">
         <v>2996</v>
       </c>
@@ -3408,10 +3572,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="4">
         <v>3000</v>
       </c>
@@ -3432,10 +3596,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="4">
         <v>35</v>
       </c>
@@ -3456,10 +3620,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="4">
         <v>65</v>
       </c>
@@ -3480,10 +3644,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -3504,10 +3668,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9">
         <v>0</v>
       </c>
@@ -3528,7 +3692,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3549,12 +3713,12 @@
       <c r="G7" s="13">
         <v>774256</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="59" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
@@ -3573,10 +3737,10 @@
       <c r="G8" s="6">
         <v>42157</v>
       </c>
-      <c r="H8" s="43"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -3595,10 +3759,10 @@
       <c r="G9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="47"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -3619,12 +3783,12 @@
       <c r="G10" s="15">
         <v>2335616</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="62" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3643,10 +3807,10 @@
       <c r="G11" s="6">
         <v>127748</v>
       </c>
-      <c r="H11" s="43"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -3665,10 +3829,10 @@
       <c r="G12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="47"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="50" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -3692,7 +3856,7 @@
       <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
@@ -3714,7 +3878,7 @@
       <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
@@ -3736,7 +3900,7 @@
       <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -3745,10 +3909,10 @@
       <c r="C16" s="6">
         <v>34725</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="40" t="s">
+      <c r="D16" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="54" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="15">
@@ -3757,48 +3921,48 @@
       <c r="G16" s="6">
         <v>7572</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="62" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6">
         <v>1144</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="6">
         <v>1</v>
       </c>
       <c r="G17" s="6">
         <v>51</v>
       </c>
-      <c r="H17" s="43"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="14" t="s">
         <v>97</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="47"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -3807,10 +3971,10 @@
       <c r="C19" s="6">
         <v>120079</v>
       </c>
-      <c r="D19" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="40" t="s">
+      <c r="D19" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="54" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="15">
@@ -3819,48 +3983,48 @@
       <c r="G19" s="6">
         <v>8121</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="62" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="6">
         <v>4354</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="6">
         <v>1</v>
       </c>
       <c r="G20" s="6">
         <v>51</v>
       </c>
-      <c r="H20" s="43"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="14" t="s">
         <v>97</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="47"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>108</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -3869,10 +4033,10 @@
       <c r="C22" s="6">
         <v>109243</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="40" t="s">
+      <c r="D22" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="54" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="15">
@@ -3884,15 +4048,15 @@
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6">
         <v>4354</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="6">
         <v>1</v>
       </c>
@@ -3902,15 +4066,15 @@
       <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
       <c r="F24" s="14" t="s">
         <v>97</v>
       </c>
@@ -3920,7 +4084,7 @@
       <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3941,10 +4105,10 @@
       <c r="G25" s="15">
         <v>739743</v>
       </c>
-      <c r="H25" s="42"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
@@ -3963,10 +4127,10 @@
       <c r="G26" s="6">
         <v>42157</v>
       </c>
-      <c r="H26" s="43"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="11" t="s">
         <v>11</v>
       </c>
@@ -3985,10 +4149,10 @@
       <c r="G27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="47"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="50" t="s">
         <v>109</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4012,7 +4176,7 @@
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
@@ -4034,7 +4198,7 @@
       <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
@@ -4056,7 +4220,7 @@
       <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -4065,10 +4229,10 @@
       <c r="C31" s="6">
         <v>153250</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="40" t="s">
+      <c r="D31" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="54" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="6">
@@ -4077,48 +4241,48 @@
       <c r="G31" s="6">
         <v>8856</v>
       </c>
-      <c r="H31" s="42" t="s">
+      <c r="H31" s="62" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="6">
         <v>11692</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="6">
         <v>29</v>
       </c>
       <c r="G32" s="6">
         <v>38</v>
       </c>
-      <c r="H32" s="43"/>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H33" s="47"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="50" t="s">
         <v>105</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -4139,10 +4303,10 @@
       <c r="G34" s="15">
         <v>722897</v>
       </c>
-      <c r="H34" s="42"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
@@ -4161,10 +4325,10 @@
       <c r="G35" s="6">
         <v>42157</v>
       </c>
-      <c r="H35" s="43"/>
+      <c r="H35" s="60"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="11" t="s">
         <v>11</v>
       </c>
@@ -4183,22 +4347,22 @@
       <c r="G36" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="47"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="40" t="s">
+      <c r="D37" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="54" t="s">
         <v>94</v>
       </c>
       <c r="F37" s="6">
@@ -4207,47 +4371,47 @@
       <c r="G37" s="15">
         <v>7815205</v>
       </c>
-      <c r="H37" s="42" t="s">
+      <c r="H37" s="62" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="6">
         <v>6</v>
       </c>
       <c r="G38" s="6">
         <v>618031</v>
       </c>
-      <c r="H38" s="43"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="12" t="s">
         <v>40</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="47"/>
+      <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="6">
@@ -4265,12 +4429,12 @@
       <c r="G40" s="15">
         <v>10469</v>
       </c>
-      <c r="H40" s="42" t="s">
+      <c r="H40" s="62" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="7" t="s">
         <v>9</v>
       </c>
@@ -4289,10 +4453,10 @@
       <c r="G41" s="6">
         <v>114</v>
       </c>
-      <c r="H41" s="43"/>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="8" t="s">
         <v>11</v>
       </c>
@@ -4311,7 +4475,7 @@
       <c r="G42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="44"/>
+      <c r="H42" s="76"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
@@ -4325,6 +4489,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="H40:H42"/>
     <mergeCell ref="D22:D24"/>
@@ -4335,34 +4521,12 @@
     <mergeCell ref="E37:E39"/>
     <mergeCell ref="H37:H39"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="H16:H18"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="H34:H36"/>
-    <mergeCell ref="A13:A15"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4371,10 +4535,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC9A8A7-DF50-445D-B75F-C63E25372D8F}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,22 +4611,22 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57">
+      <c r="A2" s="71">
         <v>2996</v>
       </c>
-      <c r="B2" s="60">
+      <c r="B2" s="70">
         <v>3000</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="70">
         <v>35</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="70">
         <v>65</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="70">
         <v>2</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="72">
         <v>0</v>
       </c>
       <c r="G2" s="25" t="s">
@@ -4486,12 +4653,12 @@
       <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="59"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="25" t="s">
         <v>9</v>
       </c>
@@ -4516,12 +4683,12 @@
       <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="59"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="30" t="s">
         <v>11</v>
       </c>
@@ -4563,22 +4730,22 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57">
+      <c r="A5" s="71">
         <v>2996</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="70">
         <v>3000</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="70">
         <v>35</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="70">
         <v>65</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="70">
         <v>2</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="72">
         <v>-1</v>
       </c>
       <c r="G5" s="25" t="s">
@@ -4594,12 +4761,12 @@
       <c r="S5" s="19"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="59"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="25" t="s">
         <v>9</v>
       </c>
@@ -4620,12 +4787,12 @@
       <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="30" t="s">
         <v>11</v>
       </c>
@@ -4667,22 +4834,22 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57">
+      <c r="A8" s="71">
         <v>2996</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="70">
         <v>3000</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="70">
         <v>35</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="70">
         <v>65</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="70">
         <v>1</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="72">
         <v>2</v>
       </c>
       <c r="G8" s="25" t="s">
@@ -4707,12 +4874,12 @@
       <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="25" t="s">
         <v>9</v>
       </c>
@@ -4735,12 +4902,12 @@
       <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="57"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="30" t="s">
         <v>11</v>
       </c>
@@ -4782,22 +4949,22 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57">
+      <c r="A11" s="71">
         <v>2950</v>
       </c>
-      <c r="B11" s="60">
+      <c r="B11" s="70">
         <v>3050</v>
       </c>
-      <c r="C11" s="60">
+      <c r="C11" s="70">
         <v>0</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="70">
         <v>100</v>
       </c>
-      <c r="E11" s="60">
+      <c r="E11" s="70">
         <v>1</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="72">
         <v>3</v>
       </c>
       <c r="G11" s="25" t="s">
@@ -4832,16 +4999,16 @@
       <c r="S11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="57"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="59"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="40">
         <f>AVERAGE(I12:S12)</f>
         <v>53252</v>
       </c>
@@ -4870,12 +5037,12 @@
       <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="59"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="30" t="s">
         <v>11</v>
       </c>
@@ -4917,22 +5084,22 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="57">
+      <c r="A14" s="71">
         <v>2996</v>
       </c>
-      <c r="B14" s="60">
+      <c r="B14" s="70">
         <v>3000</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="70">
         <v>0</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="70">
         <v>100</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="70">
         <v>1</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="72">
         <v>3</v>
       </c>
       <c r="G14" s="25" t="s">
@@ -4963,12 +5130,12 @@
       <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="59"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="25" t="s">
         <v>9</v>
       </c>
@@ -4997,12 +5164,12 @@
       <c r="S15" s="18"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="59"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="30" t="s">
         <v>11</v>
       </c>
@@ -5044,22 +5211,22 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57">
+      <c r="A17" s="71">
         <v>2996</v>
       </c>
-      <c r="B17" s="60">
+      <c r="B17" s="70">
         <v>3000</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="70">
         <v>35</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="70">
         <v>65</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="70">
         <v>3</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="72">
         <v>-1</v>
       </c>
       <c r="G17" s="25" t="s">
@@ -5082,12 +5249,12 @@
       <c r="S17" s="18"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="59"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="25" t="s">
         <v>9</v>
       </c>
@@ -5108,12 +5275,12 @@
       <c r="S18" s="18"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="61"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="26" t="s">
         <v>11</v>
       </c>
@@ -5157,6 +5324,30 @@
     <row r="20" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -5169,30 +5360,6 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5200,10 +5367,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB4C650-4BC4-4BA5-BA14-D741BADC8289}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5218,10 +5388,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="2">
         <v>2996</v>
       </c>
@@ -5242,10 +5412,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="4">
         <v>3000</v>
       </c>
@@ -5266,10 +5436,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="4">
         <v>35</v>
       </c>
@@ -5290,10 +5460,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="52"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="4">
         <v>65</v>
       </c>
@@ -5314,10 +5484,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -5338,10 +5508,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="9">
         <v>0</v>
       </c>
@@ -5362,7 +5532,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -5373,10 +5543,10 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="56"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
@@ -5385,10 +5555,10 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="43"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -5397,10 +5567,10 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="47"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -5411,10 +5581,10 @@
       <c r="E10" s="6"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="42"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
@@ -5423,10 +5593,10 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="43"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
@@ -5435,10 +5605,10 @@
       <c r="E12" s="12"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="47"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="50" t="s">
         <v>106</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -5449,10 +5619,10 @@
       <c r="E13" s="6"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="71"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
@@ -5461,10 +5631,10 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="69"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
@@ -5473,124 +5643,124 @@
       <c r="E15" s="12"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="70"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
       <c r="F16" s="15"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="42"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="43"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="14"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="47"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="15"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="42"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="43"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="14"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="47"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>108</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="15"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="71"/>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="69"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="14"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="70"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -5601,10 +5771,10 @@
       <c r="E25" s="6"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="42"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="7" t="s">
         <v>9</v>
       </c>
@@ -5613,10 +5783,10 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="43"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="11" t="s">
         <v>11</v>
       </c>
@@ -5625,24 +5795,24 @@
       <c r="E27" s="12"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="47"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="50" t="s">
         <v>109</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="71"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="7" t="s">
         <v>9</v>
       </c>
@@ -5651,10 +5821,10 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="69"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="11" t="s">
         <v>11</v>
       </c>
@@ -5663,48 +5833,48 @@
       <c r="E30" s="12"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="70"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="42"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="43"/>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="47"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="50" t="s">
         <v>105</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -5715,10 +5885,10 @@
       <c r="E34" s="6"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
-      <c r="H34" s="42"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
@@ -5727,10 +5897,10 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="43"/>
+      <c r="H35" s="60"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="11" t="s">
         <v>11</v>
       </c>
@@ -5739,51 +5909,51 @@
       <c r="E36" s="12"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
-      <c r="H36" s="47"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="50" t="s">
         <v>27</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
       <c r="F37" s="6"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="42"/>
+      <c r="H37" s="62"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="43"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="51"/>
       <c r="B39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="12"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="47"/>
+      <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="6"/>
@@ -5791,10 +5961,10 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="15"/>
-      <c r="H40" s="42"/>
+      <c r="H40" s="62"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="7" t="s">
         <v>9</v>
       </c>
@@ -5803,10 +5973,10 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="43"/>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="8" t="s">
         <v>11</v>
       </c>
@@ -5815,7 +5985,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="44"/>
+      <c r="H42" s="76"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
@@ -5829,14 +5999,18 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="H40:H42"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A28:A30"/>
@@ -5853,12 +6027,879 @@
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A25:A27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF2D2B-E62A-47C3-90E6-D6EBDB9D0B46}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2950</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3050</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="4">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="4">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4">
+        <v>65</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6">
+        <v>449193</v>
+      </c>
+      <c r="E7" s="6">
+        <v>36187</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="6">
+        <v>61742</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3024</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="60"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="61"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1525452</v>
+      </c>
+      <c r="E10" s="6">
+        <v>117374</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="62"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="6">
+        <v>192709</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10469</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="60"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="61"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="62"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="60"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="61"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6">
+        <v>166443</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2113</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2124</v>
+      </c>
+      <c r="F16" s="6">
+        <v>12827</v>
+      </c>
+      <c r="G16" s="6">
+        <v>598332</v>
+      </c>
+      <c r="H16" s="62"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6">
+        <v>17978</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>494</v>
+      </c>
+      <c r="G17" s="6">
+        <v>61351</v>
+      </c>
+      <c r="H17" s="60"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="61"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1763569</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2411</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1987</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7064</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2379388</v>
+      </c>
+      <c r="H19" s="62"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6">
+        <v>181896</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>107</v>
+      </c>
+      <c r="G20" s="6">
+        <v>253797</v>
+      </c>
+      <c r="H20" s="60"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="61"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>50801</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2155</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1940</v>
+      </c>
+      <c r="F25" s="15">
+        <v>5635</v>
+      </c>
+      <c r="G25" s="15">
+        <v>288491</v>
+      </c>
+      <c r="H25" s="62"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5071</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>129</v>
+      </c>
+      <c r="G26" s="6">
+        <v>31159</v>
+      </c>
+      <c r="H26" s="60"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="61"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="15">
+        <v>135558</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1986</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2124</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="6">
+        <v>14571</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
+        <v>4</v>
+      </c>
+      <c r="G32" s="55"/>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="56"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="6">
+        <v>19225</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="15">
+        <v>9800</v>
+      </c>
+      <c r="G34" s="15">
+        <v>4176</v>
+      </c>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="6">
+        <v>1035</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="6">
+        <v>280</v>
+      </c>
+      <c r="G35" s="6">
+        <v>23</v>
+      </c>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="56"/>
+      <c r="F36" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="37"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1306465</v>
+      </c>
+      <c r="G37" s="15">
+        <v>3322121</v>
+      </c>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="6">
+        <v>165884</v>
+      </c>
+      <c r="G38" s="6">
+        <v>275292</v>
+      </c>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="37"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="15">
+        <v>36382</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="6">
+        <v>1576</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="53"/>
+      <c r="B42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="79"/>
+      <c r="D42" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="39"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="D37:D39"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H19:H21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -5868,4 +6909,861 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A965B-007C-4E60-BD8E-2343DA3A8EA5}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2950</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2996</v>
+      </c>
+      <c r="H1" s="3">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="69"/>
+      <c r="C2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3050</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="4">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="4">
+        <v>65</v>
+      </c>
+      <c r="D4" s="4">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4">
+        <v>65</v>
+      </c>
+      <c r="F4" s="4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="13">
+        <v>149414</v>
+      </c>
+      <c r="E7" s="13">
+        <v>20883</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1337733</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="78"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="6">
+        <v>8677</v>
+      </c>
+      <c r="E8" s="6">
+        <v>798</v>
+      </c>
+      <c r="F8" s="6">
+        <v>79677</v>
+      </c>
+      <c r="G8" s="55"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="56"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>597815</v>
+      </c>
+      <c r="E10" s="6">
+        <v>66486</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="6">
+        <v>34326</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2871</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="44"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="51"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="51"/>
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15">
+        <v>4673</v>
+      </c>
+      <c r="G16" s="6">
+        <v>4586</v>
+      </c>
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="51"/>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="15">
+        <v>5630</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3816</v>
+      </c>
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="51"/>
+      <c r="B21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="51"/>
+      <c r="B24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>463733</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="15">
+        <v>5396</v>
+      </c>
+      <c r="G25" s="15">
+        <v>6189</v>
+      </c>
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="6">
+        <v>29158</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>10</v>
+      </c>
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="51"/>
+      <c r="B27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="51"/>
+      <c r="B30" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="6">
+        <v>4780</v>
+      </c>
+      <c r="G31" s="6">
+        <v>11559</v>
+      </c>
+      <c r="H31" s="46"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>215</v>
+      </c>
+      <c r="H32" s="44"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="51"/>
+      <c r="B33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6">
+        <v>493789</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="15">
+        <v>14312</v>
+      </c>
+      <c r="G34" s="15">
+        <v>8004</v>
+      </c>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6">
+        <v>17037</v>
+      </c>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="6">
+        <v>102</v>
+      </c>
+      <c r="G35" s="6">
+        <v>38</v>
+      </c>
+      <c r="H35" s="44"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="51"/>
+      <c r="B36" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="6">
+        <v>74736</v>
+      </c>
+      <c r="G37" s="15">
+        <v>362468</v>
+      </c>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="6">
+        <v>7488</v>
+      </c>
+      <c r="G38" s="6">
+        <v>26932</v>
+      </c>
+      <c r="H38" s="44"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="51"/>
+      <c r="B39" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2591487</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="6">
+        <v>21481</v>
+      </c>
+      <c r="G40" s="15">
+        <v>153952</v>
+      </c>
+      <c r="H40" s="46"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="6">
+        <v>84429</v>
+      </c>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="6">
+        <v>489</v>
+      </c>
+      <c r="G41" s="6">
+        <v>3064</v>
+      </c>
+      <c r="H41" s="44"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="53"/>
+      <c r="B42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="77"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>